--- a/docs/試験項目書兼結果報告書/試験項目書兼結果報告書_単体テスト（DB操作）.xlsx
+++ b/docs/試験項目書兼結果報告書/試験項目書兼結果報告書_単体テスト（DB操作）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\Desktop\DOJT\digital-ojt-development-beginner-cause-DroneInventorySystem\docs\試験項目書兼結果報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A31CBC-2A91-45A1-B041-A575136FA25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5019BA1F-EB26-473C-8212-ED88278ABB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
   </bookViews>
   <sheets>
     <sheet name="試験項目" sheetId="1" r:id="rId1"/>
@@ -1094,7 +1094,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1191,13 +1191,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1209,8 +1209,14 @@
     <xf numFmtId="56" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1220,6 +1226,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1239,14 +1257,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1275,34 +1311,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1311,10 +1329,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1325,33 +1343,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3354,15 +3345,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>473</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>18143</xdr:colOff>
+      <xdr:row>472</xdr:row>
+      <xdr:rowOff>208644</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
+      <xdr:colOff>272143</xdr:colOff>
       <xdr:row>476</xdr:row>
-      <xdr:rowOff>220953</xdr:rowOff>
+      <xdr:rowOff>175597</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3385,8 +3376,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="120142000"/>
-          <a:ext cx="6350000" cy="982953"/>
+          <a:off x="18143" y="120096644"/>
+          <a:ext cx="6422571" cy="982953"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3697,8 +3688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A36A9F4-38DA-8548-94CF-E223071B437C}">
   <dimension ref="A1:AO26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1:AO2"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69140625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -3707,306 +3698,306 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="64" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="47" t="s">
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="62" t="s">
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="63" t="s">
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="62" t="s">
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="60">
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="57">
         <v>45655</v>
       </c>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
     </row>
     <row r="2" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="64" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="47" t="s">
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="60"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
     </row>
     <row r="3" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="64" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="47" t="s">
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="62" t="s">
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="62" t="s">
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="61"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58"/>
     </row>
     <row r="4" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="64" t="s">
+      <c r="A4" s="69"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="65" t="s">
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="62"/>
-      <c r="AJ4" s="62"/>
-      <c r="AK4" s="62"/>
-      <c r="AL4" s="61"/>
-      <c r="AM4" s="61"/>
-      <c r="AN4" s="61"/>
-      <c r="AO4" s="61"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="58"/>
+      <c r="AO4" s="58"/>
     </row>
     <row r="5" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66" t="s">
+      <c r="B5" s="72"/>
+      <c r="C5" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66" t="s">
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="66"/>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66" t="s">
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="72"/>
+      <c r="L5" s="72"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="72"/>
+      <c r="O5" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66" t="s">
+      <c r="P5" s="72"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="72"/>
+      <c r="T5" s="72"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66" t="s">
+      <c r="W5" s="72"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="72"/>
+      <c r="Z5" s="72"/>
+      <c r="AA5" s="72"/>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="72"/>
+      <c r="AD5" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66" t="s">
+      <c r="AE5" s="72"/>
+      <c r="AF5" s="72"/>
+      <c r="AG5" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="66" t="s">
+      <c r="AH5" s="72"/>
+      <c r="AI5" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="AJ5" s="66"/>
-      <c r="AK5" s="66"/>
-      <c r="AL5" s="66"/>
-      <c r="AM5" s="66"/>
-      <c r="AN5" s="66"/>
-      <c r="AO5" s="66"/>
+      <c r="AJ5" s="72"/>
+      <c r="AK5" s="72"/>
+      <c r="AL5" s="72"/>
+      <c r="AM5" s="72"/>
+      <c r="AN5" s="72"/>
+      <c r="AO5" s="72"/>
     </row>
     <row r="6" spans="1:41" ht="34" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="21">
         <v>1</v>
       </c>
       <c r="B6" s="22"/>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="71" t="s">
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="69" t="s">
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="32" t="s">
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="75"/>
+      <c r="V6" s="54" t="s">
         <v>73</v>
       </c>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="34"/>
+      <c r="W6" s="55"/>
+      <c r="X6" s="55"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="55"/>
+      <c r="AA6" s="55"/>
+      <c r="AB6" s="55"/>
+      <c r="AC6" s="56"/>
       <c r="AD6" s="35">
         <v>45654</v>
       </c>
@@ -4017,11 +4008,11 @@
       </c>
       <c r="AH6" s="22"/>
       <c r="AI6" s="21"/>
-      <c r="AJ6" s="38"/>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="38"/>
+      <c r="AJ6" s="47"/>
+      <c r="AK6" s="47"/>
+      <c r="AL6" s="47"/>
+      <c r="AM6" s="47"/>
+      <c r="AN6" s="47"/>
       <c r="AO6" s="22"/>
     </row>
     <row r="7" spans="1:41" ht="66.5" customHeight="1" x14ac:dyDescent="0.6">
@@ -4041,25 +4032,25 @@
       <c r="L7" s="27"/>
       <c r="M7" s="27"/>
       <c r="N7" s="28"/>
-      <c r="O7" s="32" t="s">
+      <c r="O7" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="34"/>
-      <c r="V7" s="83" t="s">
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="W7" s="84"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="84"/>
-      <c r="AA7" s="84"/>
-      <c r="AB7" s="84"/>
-      <c r="AC7" s="85"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="34"/>
       <c r="AD7" s="35">
         <v>45655</v>
       </c>
@@ -4069,15 +4060,15 @@
         <v>47</v>
       </c>
       <c r="AH7" s="22"/>
-      <c r="AI7" s="72" t="s">
+      <c r="AI7" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="AJ7" s="78"/>
-      <c r="AK7" s="78"/>
-      <c r="AL7" s="78"/>
-      <c r="AM7" s="78"/>
-      <c r="AN7" s="78"/>
-      <c r="AO7" s="79"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
+      <c r="AM7" s="39"/>
+      <c r="AN7" s="39"/>
+      <c r="AO7" s="40"/>
     </row>
     <row r="8" spans="1:41" ht="38" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="21">
@@ -4089,34 +4080,34 @@
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="25"/>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="45" t="s">
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="O8" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="46" t="s">
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="51"/>
+      <c r="V8" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="W8" s="46"/>
-      <c r="X8" s="46"/>
-      <c r="Y8" s="46"/>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
+      <c r="W8" s="52"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
       <c r="AD8" s="35">
         <v>45654</v>
       </c>
@@ -4126,15 +4117,15 @@
         <v>47</v>
       </c>
       <c r="AH8" s="22"/>
-      <c r="AI8" s="47" t="s">
+      <c r="AI8" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="AJ8" s="47"/>
-      <c r="AK8" s="47"/>
-      <c r="AL8" s="47"/>
-      <c r="AM8" s="47"/>
-      <c r="AN8" s="47"/>
-      <c r="AO8" s="47"/>
+      <c r="AJ8" s="53"/>
+      <c r="AK8" s="53"/>
+      <c r="AL8" s="53"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="53"/>
+      <c r="AO8" s="53"/>
     </row>
     <row r="9" spans="1:41" ht="39" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="21">
@@ -4146,32 +4137,32 @@
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="25"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="45" t="s">
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48"/>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="46"/>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="46"/>
-      <c r="U9" s="46"/>
-      <c r="V9" s="46" t="s">
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="52"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="W9" s="46"/>
-      <c r="X9" s="46"/>
-      <c r="Y9" s="46"/>
-      <c r="Z9" s="46"/>
-      <c r="AA9" s="46"/>
-      <c r="AB9" s="46"/>
-      <c r="AC9" s="46"/>
+      <c r="W9" s="52"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
       <c r="AD9" s="35">
         <v>45654</v>
       </c>
@@ -4181,15 +4172,15 @@
         <v>47</v>
       </c>
       <c r="AH9" s="22"/>
-      <c r="AI9" s="47" t="s">
+      <c r="AI9" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="AJ9" s="47"/>
-      <c r="AK9" s="47"/>
-      <c r="AL9" s="47"/>
-      <c r="AM9" s="47"/>
-      <c r="AN9" s="47"/>
-      <c r="AO9" s="47"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="53"/>
+      <c r="AL9" s="53"/>
+      <c r="AM9" s="53"/>
+      <c r="AN9" s="53"/>
+      <c r="AO9" s="53"/>
     </row>
     <row r="10" spans="1:41" ht="48.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="21">
@@ -4201,32 +4192,32 @@
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="25"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="45" t="s">
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="32" t="s">
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="W10" s="33"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="33"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="33"/>
-      <c r="AB10" s="33"/>
-      <c r="AC10" s="34"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="55"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="56"/>
       <c r="AD10" s="35">
         <v>45654</v>
       </c>
@@ -4236,15 +4227,15 @@
         <v>47</v>
       </c>
       <c r="AH10" s="22"/>
-      <c r="AI10" s="47" t="s">
+      <c r="AI10" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="AJ10" s="47"/>
-      <c r="AK10" s="47"/>
-      <c r="AL10" s="47"/>
-      <c r="AM10" s="47"/>
-      <c r="AN10" s="47"/>
-      <c r="AO10" s="47"/>
+      <c r="AJ10" s="53"/>
+      <c r="AK10" s="53"/>
+      <c r="AL10" s="53"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="53"/>
+      <c r="AO10" s="53"/>
     </row>
     <row r="11" spans="1:41" ht="66.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="21">
@@ -4256,32 +4247,32 @@
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="42"/>
-      <c r="N11" s="42"/>
-      <c r="O11" s="32" t="s">
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="67"/>
-      <c r="S11" s="67"/>
-      <c r="T11" s="67"/>
-      <c r="U11" s="68"/>
-      <c r="V11" s="32" t="s">
+      <c r="P11" s="74"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="74"/>
+      <c r="T11" s="74"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="W11" s="33"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="33"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="33"/>
-      <c r="AB11" s="33"/>
-      <c r="AC11" s="34"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="55"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="55"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="55"/>
+      <c r="AC11" s="56"/>
       <c r="AD11" s="35">
         <v>45654</v>
       </c>
@@ -4291,15 +4282,15 @@
         <v>47</v>
       </c>
       <c r="AH11" s="22"/>
-      <c r="AI11" s="73" t="s">
+      <c r="AI11" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="AJ11" s="73"/>
-      <c r="AK11" s="73"/>
-      <c r="AL11" s="73"/>
-      <c r="AM11" s="73"/>
-      <c r="AN11" s="73"/>
-      <c r="AO11" s="73"/>
+      <c r="AJ11" s="78"/>
+      <c r="AK11" s="78"/>
+      <c r="AL11" s="78"/>
+      <c r="AM11" s="78"/>
+      <c r="AN11" s="78"/>
+      <c r="AO11" s="78"/>
     </row>
     <row r="12" spans="1:41" ht="41.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="21">
@@ -4311,32 +4302,32 @@
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="39" t="s">
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="43"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="44"/>
-      <c r="V12" s="45" t="s">
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="50"/>
+      <c r="V12" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="W12" s="46"/>
-      <c r="X12" s="46"/>
-      <c r="Y12" s="46"/>
-      <c r="Z12" s="46"/>
-      <c r="AA12" s="46"/>
-      <c r="AB12" s="46"/>
-      <c r="AC12" s="46"/>
+      <c r="W12" s="52"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
       <c r="AD12" s="35">
         <v>45654</v>
       </c>
@@ -4346,15 +4337,15 @@
         <v>47</v>
       </c>
       <c r="AH12" s="22"/>
-      <c r="AI12" s="47" t="s">
+      <c r="AI12" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="AJ12" s="47"/>
-      <c r="AK12" s="47"/>
-      <c r="AL12" s="47"/>
-      <c r="AM12" s="47"/>
-      <c r="AN12" s="47"/>
-      <c r="AO12" s="47"/>
+      <c r="AJ12" s="53"/>
+      <c r="AK12" s="53"/>
+      <c r="AL12" s="53"/>
+      <c r="AM12" s="53"/>
+      <c r="AN12" s="53"/>
+      <c r="AO12" s="53"/>
     </row>
     <row r="13" spans="1:41" ht="41.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="21">
@@ -4366,13 +4357,13 @@
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="25"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+      <c r="N13" s="48"/>
       <c r="O13" s="23"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
@@ -4380,16 +4371,16 @@
       <c r="S13" s="24"/>
       <c r="T13" s="24"/>
       <c r="U13" s="25"/>
-      <c r="V13" s="45" t="s">
+      <c r="V13" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="46"/>
-      <c r="X13" s="46"/>
-      <c r="Y13" s="46"/>
-      <c r="Z13" s="46"/>
-      <c r="AA13" s="46"/>
-      <c r="AB13" s="46"/>
-      <c r="AC13" s="46"/>
+      <c r="W13" s="52"/>
+      <c r="X13" s="52"/>
+      <c r="Y13" s="52"/>
+      <c r="Z13" s="52"/>
+      <c r="AA13" s="52"/>
+      <c r="AB13" s="52"/>
+      <c r="AC13" s="52"/>
       <c r="AD13" s="35">
         <v>45654</v>
       </c>
@@ -4399,14 +4390,14 @@
         <v>47</v>
       </c>
       <c r="AH13" s="22"/>
-      <c r="AI13" s="72" t="s">
+      <c r="AI13" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="AJ13" s="38"/>
-      <c r="AK13" s="38"/>
-      <c r="AL13" s="38"/>
-      <c r="AM13" s="38"/>
-      <c r="AN13" s="38"/>
+      <c r="AJ13" s="47"/>
+      <c r="AK13" s="47"/>
+      <c r="AL13" s="47"/>
+      <c r="AM13" s="47"/>
+      <c r="AN13" s="47"/>
       <c r="AO13" s="22"/>
     </row>
     <row r="14" spans="1:41" ht="41.5" customHeight="1" x14ac:dyDescent="0.6">
@@ -4419,13 +4410,13 @@
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="25"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="42"/>
-      <c r="N14" s="42"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
       <c r="O14" s="23"/>
       <c r="P14" s="24"/>
       <c r="Q14" s="24"/>
@@ -4433,16 +4424,16 @@
       <c r="S14" s="24"/>
       <c r="T14" s="24"/>
       <c r="U14" s="25"/>
-      <c r="V14" s="45" t="s">
+      <c r="V14" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="W14" s="46"/>
-      <c r="X14" s="46"/>
-      <c r="Y14" s="46"/>
-      <c r="Z14" s="46"/>
-      <c r="AA14" s="46"/>
-      <c r="AB14" s="46"/>
-      <c r="AC14" s="46"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
+      <c r="AA14" s="52"/>
+      <c r="AB14" s="52"/>
+      <c r="AC14" s="52"/>
       <c r="AD14" s="35">
         <v>45654</v>
       </c>
@@ -4452,14 +4443,14 @@
         <v>47</v>
       </c>
       <c r="AH14" s="22"/>
-      <c r="AI14" s="72" t="s">
+      <c r="AI14" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="AJ14" s="38"/>
-      <c r="AK14" s="38"/>
-      <c r="AL14" s="38"/>
-      <c r="AM14" s="38"/>
-      <c r="AN14" s="38"/>
+      <c r="AJ14" s="47"/>
+      <c r="AK14" s="47"/>
+      <c r="AL14" s="47"/>
+      <c r="AM14" s="47"/>
+      <c r="AN14" s="47"/>
       <c r="AO14" s="22"/>
     </row>
     <row r="15" spans="1:41" ht="41.5" customHeight="1" x14ac:dyDescent="0.6">
@@ -4472,13 +4463,13 @@
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="25"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
       <c r="O15" s="23"/>
       <c r="P15" s="24"/>
       <c r="Q15" s="24"/>
@@ -4486,16 +4477,16 @@
       <c r="S15" s="24"/>
       <c r="T15" s="24"/>
       <c r="U15" s="25"/>
-      <c r="V15" s="45" t="s">
+      <c r="V15" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="W15" s="46"/>
-      <c r="X15" s="46"/>
-      <c r="Y15" s="46"/>
-      <c r="Z15" s="46"/>
-      <c r="AA15" s="46"/>
-      <c r="AB15" s="46"/>
-      <c r="AC15" s="46"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="52"/>
+      <c r="Y15" s="52"/>
+      <c r="Z15" s="52"/>
+      <c r="AA15" s="52"/>
+      <c r="AB15" s="52"/>
+      <c r="AC15" s="52"/>
       <c r="AD15" s="35">
         <v>45654</v>
       </c>
@@ -4505,14 +4496,14 @@
         <v>47</v>
       </c>
       <c r="AH15" s="22"/>
-      <c r="AI15" s="72" t="s">
+      <c r="AI15" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="AJ15" s="38"/>
-      <c r="AK15" s="38"/>
-      <c r="AL15" s="38"/>
-      <c r="AM15" s="38"/>
-      <c r="AN15" s="38"/>
+      <c r="AJ15" s="47"/>
+      <c r="AK15" s="47"/>
+      <c r="AL15" s="47"/>
+      <c r="AM15" s="47"/>
+      <c r="AN15" s="47"/>
       <c r="AO15" s="22"/>
     </row>
     <row r="16" spans="1:41" ht="41.5" customHeight="1" x14ac:dyDescent="0.6">
@@ -4525,13 +4516,13 @@
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="25"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
       <c r="O16" s="23"/>
       <c r="P16" s="24"/>
       <c r="Q16" s="24"/>
@@ -4539,16 +4530,16 @@
       <c r="S16" s="24"/>
       <c r="T16" s="24"/>
       <c r="U16" s="25"/>
-      <c r="V16" s="45" t="s">
+      <c r="V16" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="W16" s="46"/>
-      <c r="X16" s="46"/>
-      <c r="Y16" s="46"/>
-      <c r="Z16" s="46"/>
-      <c r="AA16" s="46"/>
-      <c r="AB16" s="46"/>
-      <c r="AC16" s="46"/>
+      <c r="W16" s="52"/>
+      <c r="X16" s="52"/>
+      <c r="Y16" s="52"/>
+      <c r="Z16" s="52"/>
+      <c r="AA16" s="52"/>
+      <c r="AB16" s="52"/>
+      <c r="AC16" s="52"/>
       <c r="AD16" s="35">
         <v>45654</v>
       </c>
@@ -4558,14 +4549,14 @@
         <v>47</v>
       </c>
       <c r="AH16" s="22"/>
-      <c r="AI16" s="72" t="s">
+      <c r="AI16" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="AJ16" s="38"/>
-      <c r="AK16" s="38"/>
-      <c r="AL16" s="38"/>
-      <c r="AM16" s="38"/>
-      <c r="AN16" s="38"/>
+      <c r="AJ16" s="47"/>
+      <c r="AK16" s="47"/>
+      <c r="AL16" s="47"/>
+      <c r="AM16" s="47"/>
+      <c r="AN16" s="47"/>
       <c r="AO16" s="22"/>
     </row>
     <row r="17" spans="1:41" ht="41.5" customHeight="1" x14ac:dyDescent="0.6">
@@ -4578,13 +4569,13 @@
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
       <c r="O17" s="23"/>
       <c r="P17" s="24"/>
       <c r="Q17" s="24"/>
@@ -4592,16 +4583,16 @@
       <c r="S17" s="24"/>
       <c r="T17" s="24"/>
       <c r="U17" s="25"/>
-      <c r="V17" s="45" t="s">
+      <c r="V17" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="46"/>
-      <c r="AC17" s="46"/>
+      <c r="W17" s="52"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="52"/>
+      <c r="Z17" s="52"/>
+      <c r="AA17" s="52"/>
+      <c r="AB17" s="52"/>
+      <c r="AC17" s="52"/>
       <c r="AD17" s="35">
         <v>45654</v>
       </c>
@@ -4611,14 +4602,14 @@
         <v>47</v>
       </c>
       <c r="AH17" s="22"/>
-      <c r="AI17" s="72" t="s">
+      <c r="AI17" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="AJ17" s="38"/>
-      <c r="AK17" s="38"/>
-      <c r="AL17" s="38"/>
-      <c r="AM17" s="38"/>
-      <c r="AN17" s="38"/>
+      <c r="AJ17" s="47"/>
+      <c r="AK17" s="47"/>
+      <c r="AL17" s="47"/>
+      <c r="AM17" s="47"/>
+      <c r="AN17" s="47"/>
       <c r="AO17" s="22"/>
     </row>
     <row r="18" spans="1:41" ht="41.5" customHeight="1" x14ac:dyDescent="0.6">
@@ -4631,13 +4622,13 @@
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="25"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
       <c r="O18" s="23"/>
       <c r="P18" s="24"/>
       <c r="Q18" s="24"/>
@@ -4645,16 +4636,16 @@
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>
       <c r="U18" s="25"/>
-      <c r="V18" s="45" t="s">
+      <c r="V18" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="W18" s="46"/>
-      <c r="X18" s="46"/>
-      <c r="Y18" s="46"/>
-      <c r="Z18" s="46"/>
-      <c r="AA18" s="46"/>
-      <c r="AB18" s="46"/>
-      <c r="AC18" s="46"/>
+      <c r="W18" s="52"/>
+      <c r="X18" s="52"/>
+      <c r="Y18" s="52"/>
+      <c r="Z18" s="52"/>
+      <c r="AA18" s="52"/>
+      <c r="AB18" s="52"/>
+      <c r="AC18" s="52"/>
       <c r="AD18" s="35">
         <v>45654</v>
       </c>
@@ -4664,14 +4655,14 @@
         <v>47</v>
       </c>
       <c r="AH18" s="22"/>
-      <c r="AI18" s="72" t="s">
+      <c r="AI18" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="AJ18" s="38"/>
-      <c r="AK18" s="38"/>
-      <c r="AL18" s="38"/>
-      <c r="AM18" s="38"/>
-      <c r="AN18" s="38"/>
+      <c r="AJ18" s="47"/>
+      <c r="AK18" s="47"/>
+      <c r="AL18" s="47"/>
+      <c r="AM18" s="47"/>
+      <c r="AN18" s="47"/>
       <c r="AO18" s="22"/>
     </row>
     <row r="19" spans="1:41" ht="41.5" customHeight="1" x14ac:dyDescent="0.6">
@@ -4684,13 +4675,13 @@
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
       <c r="O19" s="23"/>
       <c r="P19" s="24"/>
       <c r="Q19" s="24"/>
@@ -4698,16 +4689,16 @@
       <c r="S19" s="24"/>
       <c r="T19" s="24"/>
       <c r="U19" s="25"/>
-      <c r="V19" s="45" t="s">
+      <c r="V19" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="W19" s="46"/>
-      <c r="X19" s="46"/>
-      <c r="Y19" s="46"/>
-      <c r="Z19" s="46"/>
-      <c r="AA19" s="46"/>
-      <c r="AB19" s="46"/>
-      <c r="AC19" s="46"/>
+      <c r="W19" s="52"/>
+      <c r="X19" s="52"/>
+      <c r="Y19" s="52"/>
+      <c r="Z19" s="52"/>
+      <c r="AA19" s="52"/>
+      <c r="AB19" s="52"/>
+      <c r="AC19" s="52"/>
       <c r="AD19" s="35">
         <v>45654</v>
       </c>
@@ -4717,14 +4708,14 @@
         <v>47</v>
       </c>
       <c r="AH19" s="22"/>
-      <c r="AI19" s="72" t="s">
+      <c r="AI19" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="AJ19" s="38"/>
-      <c r="AK19" s="38"/>
-      <c r="AL19" s="38"/>
-      <c r="AM19" s="38"/>
-      <c r="AN19" s="38"/>
+      <c r="AJ19" s="47"/>
+      <c r="AK19" s="47"/>
+      <c r="AL19" s="47"/>
+      <c r="AM19" s="47"/>
+      <c r="AN19" s="47"/>
       <c r="AO19" s="22"/>
     </row>
     <row r="20" spans="1:41" ht="41.5" customHeight="1" x14ac:dyDescent="0.6">
@@ -4737,13 +4728,13 @@
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="42"/>
-      <c r="N20" s="42"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
       <c r="O20" s="23"/>
       <c r="P20" s="24"/>
       <c r="Q20" s="24"/>
@@ -4751,16 +4742,16 @@
       <c r="S20" s="24"/>
       <c r="T20" s="24"/>
       <c r="U20" s="25"/>
-      <c r="V20" s="45" t="s">
+      <c r="V20" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="W20" s="46"/>
-      <c r="X20" s="46"/>
-      <c r="Y20" s="46"/>
-      <c r="Z20" s="46"/>
-      <c r="AA20" s="46"/>
-      <c r="AB20" s="46"/>
-      <c r="AC20" s="46"/>
+      <c r="W20" s="52"/>
+      <c r="X20" s="52"/>
+      <c r="Y20" s="52"/>
+      <c r="Z20" s="52"/>
+      <c r="AA20" s="52"/>
+      <c r="AB20" s="52"/>
+      <c r="AC20" s="52"/>
       <c r="AD20" s="35">
         <v>45654</v>
       </c>
@@ -4770,14 +4761,14 @@
         <v>47</v>
       </c>
       <c r="AH20" s="22"/>
-      <c r="AI20" s="72" t="s">
+      <c r="AI20" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="AJ20" s="38"/>
-      <c r="AK20" s="38"/>
-      <c r="AL20" s="38"/>
-      <c r="AM20" s="38"/>
-      <c r="AN20" s="38"/>
+      <c r="AJ20" s="47"/>
+      <c r="AK20" s="47"/>
+      <c r="AL20" s="47"/>
+      <c r="AM20" s="47"/>
+      <c r="AN20" s="47"/>
       <c r="AO20" s="22"/>
     </row>
     <row r="21" spans="1:41" ht="41.5" customHeight="1" x14ac:dyDescent="0.6">
@@ -4790,13 +4781,13 @@
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="25"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="42"/>
-      <c r="N21" s="42"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
       <c r="O21" s="23"/>
       <c r="P21" s="24"/>
       <c r="Q21" s="24"/>
@@ -4804,16 +4795,16 @@
       <c r="S21" s="24"/>
       <c r="T21" s="24"/>
       <c r="U21" s="25"/>
-      <c r="V21" s="45" t="s">
+      <c r="V21" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="W21" s="46"/>
-      <c r="X21" s="46"/>
-      <c r="Y21" s="46"/>
-      <c r="Z21" s="46"/>
-      <c r="AA21" s="46"/>
-      <c r="AB21" s="46"/>
-      <c r="AC21" s="46"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
       <c r="AD21" s="35">
         <v>45654</v>
       </c>
@@ -4823,14 +4814,14 @@
         <v>47</v>
       </c>
       <c r="AH21" s="22"/>
-      <c r="AI21" s="72" t="s">
+      <c r="AI21" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="AJ21" s="38"/>
-      <c r="AK21" s="38"/>
-      <c r="AL21" s="38"/>
-      <c r="AM21" s="38"/>
-      <c r="AN21" s="38"/>
+      <c r="AJ21" s="47"/>
+      <c r="AK21" s="47"/>
+      <c r="AL21" s="47"/>
+      <c r="AM21" s="47"/>
+      <c r="AN21" s="47"/>
       <c r="AO21" s="22"/>
     </row>
     <row r="22" spans="1:41" ht="41.5" customHeight="1" x14ac:dyDescent="0.6">
@@ -4843,13 +4834,13 @@
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
       <c r="G22" s="25"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
-      <c r="M22" s="42"/>
-      <c r="N22" s="42"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
       <c r="O22" s="23"/>
       <c r="P22" s="24"/>
       <c r="Q22" s="24"/>
@@ -4857,16 +4848,16 @@
       <c r="S22" s="24"/>
       <c r="T22" s="24"/>
       <c r="U22" s="25"/>
-      <c r="V22" s="45" t="s">
+      <c r="V22" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="W22" s="46"/>
-      <c r="X22" s="46"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="46"/>
-      <c r="AA22" s="46"/>
-      <c r="AB22" s="46"/>
-      <c r="AC22" s="46"/>
+      <c r="W22" s="52"/>
+      <c r="X22" s="52"/>
+      <c r="Y22" s="52"/>
+      <c r="Z22" s="52"/>
+      <c r="AA22" s="52"/>
+      <c r="AB22" s="52"/>
+      <c r="AC22" s="52"/>
       <c r="AD22" s="35">
         <v>45654</v>
       </c>
@@ -4876,14 +4867,14 @@
         <v>47</v>
       </c>
       <c r="AH22" s="22"/>
-      <c r="AI22" s="72" t="s">
+      <c r="AI22" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="AJ22" s="38"/>
-      <c r="AK22" s="38"/>
-      <c r="AL22" s="38"/>
-      <c r="AM22" s="38"/>
-      <c r="AN22" s="38"/>
+      <c r="AJ22" s="47"/>
+      <c r="AK22" s="47"/>
+      <c r="AL22" s="47"/>
+      <c r="AM22" s="47"/>
+      <c r="AN22" s="47"/>
       <c r="AO22" s="22"/>
     </row>
     <row r="23" spans="1:41" ht="41.5" customHeight="1" x14ac:dyDescent="0.6">
@@ -4896,32 +4887,32 @@
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="39" t="s">
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="43"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="45" t="s">
+      <c r="P23" s="49"/>
+      <c r="Q23" s="49"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="50"/>
+      <c r="V23" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="W23" s="46"/>
-      <c r="X23" s="46"/>
-      <c r="Y23" s="46"/>
-      <c r="Z23" s="46"/>
-      <c r="AA23" s="46"/>
-      <c r="AB23" s="46"/>
-      <c r="AC23" s="46"/>
+      <c r="W23" s="52"/>
+      <c r="X23" s="52"/>
+      <c r="Y23" s="52"/>
+      <c r="Z23" s="52"/>
+      <c r="AA23" s="52"/>
+      <c r="AB23" s="52"/>
+      <c r="AC23" s="52"/>
       <c r="AD23" s="35">
         <v>45654</v>
       </c>
@@ -4931,15 +4922,15 @@
         <v>47</v>
       </c>
       <c r="AH23" s="22"/>
-      <c r="AI23" s="47" t="s">
+      <c r="AI23" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="AJ23" s="47"/>
-      <c r="AK23" s="47"/>
-      <c r="AL23" s="47"/>
-      <c r="AM23" s="47"/>
-      <c r="AN23" s="47"/>
-      <c r="AO23" s="47"/>
+      <c r="AJ23" s="53"/>
+      <c r="AK23" s="53"/>
+      <c r="AL23" s="53"/>
+      <c r="AM23" s="53"/>
+      <c r="AN23" s="53"/>
+      <c r="AO23" s="53"/>
     </row>
     <row r="24" spans="1:41" ht="79" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A24" s="21">
@@ -4958,25 +4949,25 @@
       <c r="L24" s="24"/>
       <c r="M24" s="24"/>
       <c r="N24" s="25"/>
-      <c r="O24" s="39" t="s">
+      <c r="O24" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="P24" s="40"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="40"/>
-      <c r="S24" s="40"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="80" t="s">
+      <c r="P24" s="42"/>
+      <c r="Q24" s="42"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="W24" s="81"/>
-      <c r="X24" s="81"/>
-      <c r="Y24" s="81"/>
-      <c r="Z24" s="81"/>
-      <c r="AA24" s="81"/>
-      <c r="AB24" s="81"/>
-      <c r="AC24" s="82"/>
+      <c r="W24" s="33"/>
+      <c r="X24" s="33"/>
+      <c r="Y24" s="33"/>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="33"/>
+      <c r="AC24" s="34"/>
       <c r="AD24" s="35">
         <v>45655</v>
       </c>
@@ -4986,15 +4977,15 @@
         <v>47</v>
       </c>
       <c r="AH24" s="22"/>
-      <c r="AI24" s="72" t="s">
+      <c r="AI24" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="AJ24" s="78"/>
-      <c r="AK24" s="78"/>
-      <c r="AL24" s="78"/>
-      <c r="AM24" s="78"/>
-      <c r="AN24" s="78"/>
-      <c r="AO24" s="79"/>
+      <c r="AJ24" s="39"/>
+      <c r="AK24" s="39"/>
+      <c r="AL24" s="39"/>
+      <c r="AM24" s="39"/>
+      <c r="AN24" s="39"/>
+      <c r="AO24" s="40"/>
     </row>
     <row r="25" spans="1:41" ht="65" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A25" s="21">
@@ -5013,23 +5004,23 @@
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
       <c r="N25" s="25"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="49"/>
-      <c r="T25" s="49"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="80" t="s">
+      <c r="O25" s="44"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="W25" s="81"/>
-      <c r="X25" s="81"/>
-      <c r="Y25" s="81"/>
-      <c r="Z25" s="81"/>
-      <c r="AA25" s="81"/>
-      <c r="AB25" s="81"/>
-      <c r="AC25" s="82"/>
+      <c r="W25" s="33"/>
+      <c r="X25" s="33"/>
+      <c r="Y25" s="33"/>
+      <c r="Z25" s="33"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="33"/>
+      <c r="AC25" s="34"/>
       <c r="AD25" s="35">
         <v>45655</v>
       </c>
@@ -5042,11 +5033,11 @@
       <c r="AI25" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="AJ25" s="38"/>
-      <c r="AK25" s="38"/>
-      <c r="AL25" s="38"/>
-      <c r="AM25" s="38"/>
-      <c r="AN25" s="38"/>
+      <c r="AJ25" s="47"/>
+      <c r="AK25" s="47"/>
+      <c r="AL25" s="47"/>
+      <c r="AM25" s="47"/>
+      <c r="AN25" s="47"/>
       <c r="AO25" s="22"/>
     </row>
     <row r="26" spans="1:41" ht="81" customHeight="1" x14ac:dyDescent="0.6">
@@ -5073,16 +5064,16 @@
       <c r="S26" s="30"/>
       <c r="T26" s="30"/>
       <c r="U26" s="31"/>
-      <c r="V26" s="83" t="s">
+      <c r="V26" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="W26" s="84"/>
-      <c r="X26" s="84"/>
-      <c r="Y26" s="84"/>
-      <c r="Z26" s="84"/>
-      <c r="AA26" s="84"/>
-      <c r="AB26" s="84"/>
-      <c r="AC26" s="85"/>
+      <c r="W26" s="33"/>
+      <c r="X26" s="33"/>
+      <c r="Y26" s="33"/>
+      <c r="Z26" s="33"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="33"/>
+      <c r="AC26" s="34"/>
       <c r="AD26" s="35">
         <v>45655</v>
       </c>
@@ -5092,15 +5083,15 @@
         <v>47</v>
       </c>
       <c r="AH26" s="22"/>
-      <c r="AI26" s="72" t="s">
+      <c r="AI26" s="38" t="s">
         <v>84</v>
       </c>
-      <c r="AJ26" s="78"/>
-      <c r="AK26" s="78"/>
-      <c r="AL26" s="78"/>
-      <c r="AM26" s="78"/>
-      <c r="AN26" s="78"/>
-      <c r="AO26" s="79"/>
+      <c r="AJ26" s="39"/>
+      <c r="AK26" s="39"/>
+      <c r="AL26" s="39"/>
+      <c r="AM26" s="39"/>
+      <c r="AN26" s="39"/>
+      <c r="AO26" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="193">
@@ -5189,18 +5180,6 @@
     <mergeCell ref="AD12:AF12"/>
     <mergeCell ref="V9:AC9"/>
     <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="O12:U12"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="O13:U13"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="O14:U14"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="O10:U10"/>
-    <mergeCell ref="O11:U11"/>
-    <mergeCell ref="V14:AC14"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:G16"/>
     <mergeCell ref="AI5:AO5"/>
@@ -5224,6 +5203,7 @@
     <mergeCell ref="AI8:AO8"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="O12:U12"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C12:G12"/>
@@ -5234,6 +5214,17 @@
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="T1:AA1"/>
     <mergeCell ref="A1:N4"/>
+    <mergeCell ref="V14:AC14"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="O13:U13"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="O14:U14"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="O10:U10"/>
+    <mergeCell ref="O11:U11"/>
     <mergeCell ref="AL1:AO2"/>
     <mergeCell ref="AL3:AO4"/>
     <mergeCell ref="AB3:AD4"/>
@@ -5308,8 +5299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A998546-974D-3744-9E49-E8CBED3EA6E4}">
   <dimension ref="A1:AO477"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="AL1" sqref="AL1:AO2"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.69140625" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.6"/>
@@ -5318,218 +5309,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="64" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="47" t="s">
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
-      <c r="AB1" s="62" t="s">
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
+      <c r="AB1" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="62"/>
-      <c r="AE1" s="63" t="s">
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="62" t="s">
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="60"/>
+      <c r="AI1" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="60">
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
+      <c r="AL1" s="57">
         <v>45655</v>
       </c>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
+      <c r="AM1" s="57"/>
+      <c r="AN1" s="57"/>
+      <c r="AO1" s="57"/>
     </row>
     <row r="2" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="64" t="s">
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="47" t="s">
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
-      <c r="W2" s="47"/>
-      <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
-      <c r="Z2" s="47"/>
-      <c r="AA2" s="47"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="62"/>
-      <c r="AJ2" s="62"/>
-      <c r="AK2" s="62"/>
-      <c r="AL2" s="60"/>
-      <c r="AM2" s="60"/>
-      <c r="AN2" s="60"/>
-      <c r="AO2" s="60"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="59"/>
+      <c r="AC2" s="59"/>
+      <c r="AD2" s="59"/>
+      <c r="AE2" s="60"/>
+      <c r="AF2" s="60"/>
+      <c r="AG2" s="60"/>
+      <c r="AH2" s="60"/>
+      <c r="AI2" s="59"/>
+      <c r="AJ2" s="59"/>
+      <c r="AK2" s="59"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="57"/>
+      <c r="AO2" s="57"/>
     </row>
     <row r="3" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="64" t="s">
+      <c r="A3" s="66"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="47" t="s">
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="47"/>
-      <c r="Z3" s="47"/>
-      <c r="AA3" s="47"/>
-      <c r="AB3" s="62" t="s">
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="53"/>
+      <c r="AB3" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="47"/>
-      <c r="AF3" s="47"/>
-      <c r="AG3" s="47"/>
-      <c r="AH3" s="47"/>
-      <c r="AI3" s="62" t="s">
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="59"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="53"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="53"/>
+      <c r="AI3" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="61"/>
+      <c r="AJ3" s="59"/>
+      <c r="AK3" s="59"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58"/>
     </row>
     <row r="4" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="64" t="s">
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="65" t="s">
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="62"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="62"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="62"/>
-      <c r="AJ4" s="62"/>
-      <c r="AK4" s="62"/>
-      <c r="AL4" s="61"/>
-      <c r="AM4" s="61"/>
-      <c r="AN4" s="61"/>
-      <c r="AO4" s="61"/>
+      <c r="U4" s="62"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="62"/>
+      <c r="X4" s="62"/>
+      <c r="Y4" s="62"/>
+      <c r="Z4" s="62"/>
+      <c r="AA4" s="62"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="58"/>
+      <c r="AO4" s="58"/>
     </row>
     <row r="5" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="77" t="s">
+      <c r="A5" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77">
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79">
         <v>1</v>
       </c>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -6917,16 +6908,16 @@
       <c r="AO37" s="16"/>
     </row>
     <row r="38" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A38" s="77" t="s">
+      <c r="A38" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="77"/>
-      <c r="C38" s="77"/>
-      <c r="D38" s="77">
+      <c r="B38" s="79"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79">
         <v>2</v>
       </c>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -7839,16 +7830,16 @@
       <c r="AO59" s="16"/>
     </row>
     <row r="60" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A60" s="77" t="s">
+      <c r="A60" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="77"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="77">
+      <c r="B60" s="79"/>
+      <c r="C60" s="79"/>
+      <c r="D60" s="79">
         <v>3</v>
       </c>
-      <c r="E60" s="77"/>
-      <c r="F60" s="77"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -8761,16 +8752,16 @@
       <c r="AO81" s="16"/>
     </row>
     <row r="82" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A82" s="77" t="s">
+      <c r="A82" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="77"/>
-      <c r="C82" s="77"/>
-      <c r="D82" s="77">
+      <c r="B82" s="79"/>
+      <c r="C82" s="79"/>
+      <c r="D82" s="79">
         <v>4</v>
       </c>
-      <c r="E82" s="77"/>
-      <c r="F82" s="77"/>
+      <c r="E82" s="79"/>
+      <c r="F82" s="79"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -9683,16 +9674,16 @@
       <c r="AO103" s="16"/>
     </row>
     <row r="104" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A104" s="77" t="s">
+      <c r="A104" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="77"/>
-      <c r="C104" s="77"/>
-      <c r="D104" s="77">
+      <c r="B104" s="79"/>
+      <c r="C104" s="79"/>
+      <c r="D104" s="79">
         <v>5</v>
       </c>
-      <c r="E104" s="77"/>
-      <c r="F104" s="77"/>
+      <c r="E104" s="79"/>
+      <c r="F104" s="79"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
@@ -10605,16 +10596,16 @@
       <c r="AO125" s="16"/>
     </row>
     <row r="126" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A126" s="77" t="s">
+      <c r="A126" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B126" s="77"/>
-      <c r="C126" s="77"/>
-      <c r="D126" s="77">
+      <c r="B126" s="79"/>
+      <c r="C126" s="79"/>
+      <c r="D126" s="79">
         <v>6</v>
       </c>
-      <c r="E126" s="77"/>
-      <c r="F126" s="77"/>
+      <c r="E126" s="79"/>
+      <c r="F126" s="79"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -11527,16 +11518,16 @@
       <c r="AO147" s="16"/>
     </row>
     <row r="148" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A148" s="74" t="s">
+      <c r="A148" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B148" s="75"/>
-      <c r="C148" s="76"/>
-      <c r="D148" s="74">
+      <c r="B148" s="81"/>
+      <c r="C148" s="82"/>
+      <c r="D148" s="80">
         <v>7</v>
       </c>
-      <c r="E148" s="75"/>
-      <c r="F148" s="76"/>
+      <c r="E148" s="81"/>
+      <c r="F148" s="82"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
@@ -12449,16 +12440,16 @@
       <c r="AO169" s="16"/>
     </row>
     <row r="170" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A170" s="74" t="s">
+      <c r="A170" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B170" s="75"/>
-      <c r="C170" s="76"/>
-      <c r="D170" s="74">
+      <c r="B170" s="81"/>
+      <c r="C170" s="82"/>
+      <c r="D170" s="80">
         <v>8</v>
       </c>
-      <c r="E170" s="75"/>
-      <c r="F170" s="76"/>
+      <c r="E170" s="81"/>
+      <c r="F170" s="82"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
@@ -13371,16 +13362,16 @@
       <c r="AO191" s="16"/>
     </row>
     <row r="192" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A192" s="74" t="s">
+      <c r="A192" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B192" s="75"/>
-      <c r="C192" s="76"/>
-      <c r="D192" s="74">
+      <c r="B192" s="81"/>
+      <c r="C192" s="82"/>
+      <c r="D192" s="80">
         <v>9</v>
       </c>
-      <c r="E192" s="75"/>
-      <c r="F192" s="76"/>
+      <c r="E192" s="81"/>
+      <c r="F192" s="82"/>
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
@@ -14293,16 +14284,16 @@
       <c r="AO213" s="16"/>
     </row>
     <row r="214" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A214" s="74" t="s">
+      <c r="A214" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B214" s="75"/>
-      <c r="C214" s="76"/>
-      <c r="D214" s="74">
+      <c r="B214" s="81"/>
+      <c r="C214" s="82"/>
+      <c r="D214" s="80">
         <v>10</v>
       </c>
-      <c r="E214" s="75"/>
-      <c r="F214" s="76"/>
+      <c r="E214" s="81"/>
+      <c r="F214" s="82"/>
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
@@ -15215,16 +15206,16 @@
       <c r="AO235" s="16"/>
     </row>
     <row r="236" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A236" s="74" t="s">
+      <c r="A236" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B236" s="75"/>
-      <c r="C236" s="76"/>
-      <c r="D236" s="74">
+      <c r="B236" s="81"/>
+      <c r="C236" s="82"/>
+      <c r="D236" s="80">
         <v>11</v>
       </c>
-      <c r="E236" s="75"/>
-      <c r="F236" s="76"/>
+      <c r="E236" s="81"/>
+      <c r="F236" s="82"/>
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
       <c r="I236" s="2"/>
@@ -16137,16 +16128,16 @@
       <c r="AO257" s="16"/>
     </row>
     <row r="258" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A258" s="74" t="s">
+      <c r="A258" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B258" s="75"/>
-      <c r="C258" s="76"/>
-      <c r="D258" s="74">
+      <c r="B258" s="81"/>
+      <c r="C258" s="82"/>
+      <c r="D258" s="80">
         <v>12</v>
       </c>
-      <c r="E258" s="75"/>
-      <c r="F258" s="76"/>
+      <c r="E258" s="81"/>
+      <c r="F258" s="82"/>
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
       <c r="I258" s="2"/>
@@ -17059,16 +17050,16 @@
       <c r="AO279" s="16"/>
     </row>
     <row r="280" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A280" s="74" t="s">
+      <c r="A280" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B280" s="75"/>
-      <c r="C280" s="76"/>
-      <c r="D280" s="74">
+      <c r="B280" s="81"/>
+      <c r="C280" s="82"/>
+      <c r="D280" s="80">
         <v>13</v>
       </c>
-      <c r="E280" s="75"/>
-      <c r="F280" s="76"/>
+      <c r="E280" s="81"/>
+      <c r="F280" s="82"/>
       <c r="G280" s="2"/>
       <c r="H280" s="2"/>
       <c r="I280" s="2"/>
@@ -17981,16 +17972,16 @@
       <c r="AO301" s="16"/>
     </row>
     <row r="302" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A302" s="74" t="s">
+      <c r="A302" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B302" s="75"/>
-      <c r="C302" s="76"/>
-      <c r="D302" s="74">
+      <c r="B302" s="81"/>
+      <c r="C302" s="82"/>
+      <c r="D302" s="80">
         <v>14</v>
       </c>
-      <c r="E302" s="75"/>
-      <c r="F302" s="76"/>
+      <c r="E302" s="81"/>
+      <c r="F302" s="82"/>
       <c r="G302" s="2"/>
       <c r="H302" s="2"/>
       <c r="I302" s="2"/>
@@ -18903,16 +18894,16 @@
       <c r="AO323" s="16"/>
     </row>
     <row r="324" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A324" s="74" t="s">
+      <c r="A324" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B324" s="75"/>
-      <c r="C324" s="76"/>
-      <c r="D324" s="74">
+      <c r="B324" s="81"/>
+      <c r="C324" s="82"/>
+      <c r="D324" s="80">
         <v>15</v>
       </c>
-      <c r="E324" s="75"/>
-      <c r="F324" s="76"/>
+      <c r="E324" s="81"/>
+      <c r="F324" s="82"/>
       <c r="G324" s="2"/>
       <c r="H324" s="2"/>
       <c r="I324" s="2"/>
@@ -19825,16 +19816,16 @@
       <c r="AO345" s="16"/>
     </row>
     <row r="346" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A346" s="74" t="s">
+      <c r="A346" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B346" s="75"/>
-      <c r="C346" s="76"/>
-      <c r="D346" s="74">
+      <c r="B346" s="81"/>
+      <c r="C346" s="82"/>
+      <c r="D346" s="80">
         <v>16</v>
       </c>
-      <c r="E346" s="75"/>
-      <c r="F346" s="76"/>
+      <c r="E346" s="81"/>
+      <c r="F346" s="82"/>
       <c r="G346" s="2"/>
       <c r="H346" s="2"/>
       <c r="I346" s="2"/>
@@ -20747,16 +20738,16 @@
       <c r="AO367" s="16"/>
     </row>
     <row r="368" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A368" s="74" t="s">
+      <c r="A368" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B368" s="75"/>
-      <c r="C368" s="76"/>
-      <c r="D368" s="74">
+      <c r="B368" s="81"/>
+      <c r="C368" s="82"/>
+      <c r="D368" s="80">
         <v>17</v>
       </c>
-      <c r="E368" s="75"/>
-      <c r="F368" s="76"/>
+      <c r="E368" s="81"/>
+      <c r="F368" s="82"/>
       <c r="G368" s="2"/>
       <c r="H368" s="2"/>
       <c r="I368" s="2"/>
@@ -21669,16 +21660,16 @@
       <c r="AO389" s="16"/>
     </row>
     <row r="390" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A390" s="74" t="s">
+      <c r="A390" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B390" s="75"/>
-      <c r="C390" s="76"/>
-      <c r="D390" s="74">
+      <c r="B390" s="81"/>
+      <c r="C390" s="82"/>
+      <c r="D390" s="80">
         <v>18</v>
       </c>
-      <c r="E390" s="75"/>
-      <c r="F390" s="76"/>
+      <c r="E390" s="81"/>
+      <c r="F390" s="82"/>
       <c r="G390" s="2"/>
       <c r="H390" s="2"/>
       <c r="I390" s="2"/>
@@ -22591,16 +22582,16 @@
       <c r="AO411" s="16"/>
     </row>
     <row r="412" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A412" s="74" t="s">
+      <c r="A412" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B412" s="75"/>
-      <c r="C412" s="76"/>
-      <c r="D412" s="74">
+      <c r="B412" s="81"/>
+      <c r="C412" s="82"/>
+      <c r="D412" s="80">
         <v>19</v>
       </c>
-      <c r="E412" s="75"/>
-      <c r="F412" s="76"/>
+      <c r="E412" s="81"/>
+      <c r="F412" s="82"/>
       <c r="G412" s="2"/>
       <c r="H412" s="2"/>
       <c r="I412" s="2"/>
@@ -23515,16 +23506,16 @@
       <c r="AO433" s="16"/>
     </row>
     <row r="434" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A434" s="74" t="s">
+      <c r="A434" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B434" s="75"/>
-      <c r="C434" s="76"/>
-      <c r="D434" s="74">
+      <c r="B434" s="81"/>
+      <c r="C434" s="82"/>
+      <c r="D434" s="80">
         <v>20</v>
       </c>
-      <c r="E434" s="75"/>
-      <c r="F434" s="76"/>
+      <c r="E434" s="81"/>
+      <c r="F434" s="82"/>
       <c r="G434" s="2"/>
       <c r="H434" s="2"/>
       <c r="I434" s="2"/>
@@ -24439,16 +24430,16 @@
       <c r="AO455" s="16"/>
     </row>
     <row r="456" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A456" s="74" t="s">
+      <c r="A456" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="B456" s="75"/>
-      <c r="C456" s="76"/>
-      <c r="D456" s="74">
+      <c r="B456" s="81"/>
+      <c r="C456" s="82"/>
+      <c r="D456" s="80">
         <v>21</v>
       </c>
-      <c r="E456" s="75"/>
-      <c r="F456" s="76"/>
+      <c r="E456" s="81"/>
+      <c r="F456" s="82"/>
       <c r="G456" s="2"/>
       <c r="H456" s="2"/>
       <c r="I456" s="2"/>
@@ -25364,8 +25355,6 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A434:C434"/>
-    <mergeCell ref="D434:F434"/>
     <mergeCell ref="A456:C456"/>
     <mergeCell ref="D456:F456"/>
     <mergeCell ref="A258:C258"/>
@@ -25378,19 +25367,21 @@
     <mergeCell ref="D302:F302"/>
     <mergeCell ref="A324:C324"/>
     <mergeCell ref="D324:F324"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="D192:F192"/>
+    <mergeCell ref="A412:C412"/>
+    <mergeCell ref="D412:F412"/>
     <mergeCell ref="A214:C214"/>
     <mergeCell ref="D214:F214"/>
     <mergeCell ref="A236:C236"/>
     <mergeCell ref="D236:F236"/>
-    <mergeCell ref="AB1:AD2"/>
-    <mergeCell ref="AE1:AH2"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="D170:F170"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="D148:F148"/>
+    <mergeCell ref="A434:C434"/>
+    <mergeCell ref="D434:F434"/>
+    <mergeCell ref="A1:N4"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="AL1:AO2"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="T2:AA2"/>
@@ -25402,27 +25393,27 @@
     <mergeCell ref="AL3:AO4"/>
     <mergeCell ref="O4:S4"/>
     <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="A1:N4"/>
     <mergeCell ref="O1:S1"/>
     <mergeCell ref="T1:AA1"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="D126:F126"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="AB1:AD2"/>
+    <mergeCell ref="AE1:AH2"/>
+    <mergeCell ref="T4:AA4"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="D60:F60"/>
     <mergeCell ref="A390:C390"/>
     <mergeCell ref="D390:F390"/>
-    <mergeCell ref="A412:C412"/>
-    <mergeCell ref="D412:F412"/>
     <mergeCell ref="A368:C368"/>
     <mergeCell ref="D368:F368"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="D170:F170"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="D148:F148"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="D126:F126"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="D192:F192"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/試験項目書兼結果報告書/試験項目書兼結果報告書_単体テスト（DB操作）.xlsx
+++ b/docs/試験項目書兼結果報告書/試験項目書兼結果報告書_単体テスト（DB操作）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miche\OneDrive\Desktop\DOJT\digital-ojt-development-beginner-cause-DroneInventorySystem\docs\試験項目書兼結果報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5019BA1F-EB26-473C-8212-ED88278ABB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB7EEDE-BD31-4D81-9EF6-393B3CB60575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
   </bookViews>
   <sheets>
     <sheet name="試験項目" sheetId="1" r:id="rId1"/>
@@ -1158,12 +1158,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1173,32 +1167,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1210,48 +1183,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1266,23 +1209,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1311,29 +1266,71 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1342,6 +1339,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3688,7 +3688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A36A9F4-38DA-8548-94CF-E223071B437C}">
   <dimension ref="A1:AO26"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
@@ -3698,22 +3698,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="65"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
       <c r="O1" s="61" t="s">
         <v>0</v>
       </c>
@@ -3721,16 +3721,16 @@
       <c r="Q1" s="61"/>
       <c r="R1" s="61"/>
       <c r="S1" s="61"/>
-      <c r="T1" s="53" t="s">
+      <c r="T1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
       <c r="AB1" s="59" t="s">
         <v>6</v>
       </c>
@@ -3755,20 +3755,20 @@
       <c r="AO1" s="57"/>
     </row>
     <row r="2" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="68"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="53"/>
       <c r="O2" s="61" t="s">
         <v>2</v>
       </c>
@@ -3776,16 +3776,16 @@
       <c r="Q2" s="61"/>
       <c r="R2" s="61"/>
       <c r="S2" s="61"/>
-      <c r="T2" s="53" t="s">
+      <c r="T2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
       <c r="AB2" s="59"/>
       <c r="AC2" s="59"/>
       <c r="AD2" s="59"/>
@@ -3802,20 +3802,20 @@
       <c r="AO2" s="57"/>
     </row>
     <row r="3" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="68"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
       <c r="O3" s="61" t="s">
         <v>5</v>
       </c>
@@ -3823,25 +3823,25 @@
       <c r="Q3" s="61"/>
       <c r="R3" s="61"/>
       <c r="S3" s="61"/>
-      <c r="T3" s="53" t="s">
+      <c r="T3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
       <c r="AB3" s="59" t="s">
         <v>7</v>
       </c>
       <c r="AC3" s="59"/>
       <c r="AD3" s="59"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
       <c r="AI3" s="59" t="s">
         <v>9</v>
       </c>
@@ -3853,20 +3853,20 @@
       <c r="AO3" s="58"/>
     </row>
     <row r="4" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="69"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="71"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="56"/>
       <c r="O4" s="61" t="s">
         <v>4</v>
       </c>
@@ -3887,10 +3887,10 @@
       <c r="AB4" s="59"/>
       <c r="AC4" s="59"/>
       <c r="AD4" s="59"/>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
       <c r="AI4" s="59"/>
       <c r="AJ4" s="59"/>
       <c r="AK4" s="59"/>
@@ -3900,1346 +3900,1225 @@
       <c r="AO4" s="58"/>
     </row>
     <row r="5" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="72"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72" t="s">
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72" t="s">
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="72"/>
-      <c r="AA5" s="72"/>
-      <c r="AB5" s="72"/>
-      <c r="AC5" s="72"/>
-      <c r="AD5" s="72" t="s">
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="AE5" s="72"/>
-      <c r="AF5" s="72"/>
-      <c r="AG5" s="72" t="s">
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="AH5" s="72"/>
-      <c r="AI5" s="72" t="s">
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="AJ5" s="72"/>
-      <c r="AK5" s="72"/>
-      <c r="AL5" s="72"/>
-      <c r="AM5" s="72"/>
-      <c r="AN5" s="72"/>
-      <c r="AO5" s="72"/>
+      <c r="AJ5" s="39"/>
+      <c r="AK5" s="39"/>
+      <c r="AL5" s="39"/>
+      <c r="AM5" s="39"/>
+      <c r="AN5" s="39"/>
+      <c r="AO5" s="39"/>
     </row>
     <row r="6" spans="1:41" ht="34" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="21">
+      <c r="A6" s="29">
         <v>1</v>
       </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="77" t="s">
+      <c r="B6" s="30"/>
+      <c r="C6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="77" t="s">
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="50"/>
-      <c r="O6" s="73" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="P6" s="74"/>
-      <c r="Q6" s="74"/>
-      <c r="R6" s="74"/>
-      <c r="S6" s="74"/>
-      <c r="T6" s="74"/>
-      <c r="U6" s="75"/>
-      <c r="V6" s="54" t="s">
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="W6" s="55"/>
-      <c r="X6" s="55"/>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="55"/>
-      <c r="AA6" s="55"/>
-      <c r="AB6" s="55"/>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="35">
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="37"/>
+      <c r="AD6" s="26">
         <v>45654</v>
       </c>
-      <c r="AE6" s="36"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="21" t="s">
+      <c r="AE6" s="27"/>
+      <c r="AF6" s="28"/>
+      <c r="AG6" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="21"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="47"/>
-      <c r="AL6" s="47"/>
-      <c r="AM6" s="47"/>
-      <c r="AN6" s="47"/>
-      <c r="AO6" s="22"/>
+      <c r="AH6" s="30"/>
+      <c r="AI6" s="29"/>
+      <c r="AJ6" s="32"/>
+      <c r="AK6" s="32"/>
+      <c r="AL6" s="32"/>
+      <c r="AM6" s="32"/>
+      <c r="AN6" s="32"/>
+      <c r="AO6" s="30"/>
     </row>
     <row r="7" spans="1:41" ht="66.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="21">
+      <c r="A7" s="29">
         <v>2</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="28"/>
-      <c r="O7" s="54" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="32" t="s">
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="34"/>
-      <c r="AD7" s="35">
+      <c r="W7" s="67"/>
+      <c r="X7" s="67"/>
+      <c r="Y7" s="67"/>
+      <c r="Z7" s="67"/>
+      <c r="AA7" s="67"/>
+      <c r="AB7" s="67"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="26">
         <v>45655</v>
       </c>
-      <c r="AE7" s="36"/>
-      <c r="AF7" s="37"/>
-      <c r="AG7" s="21" t="s">
+      <c r="AE7" s="27"/>
+      <c r="AF7" s="28"/>
+      <c r="AG7" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="38" t="s">
+      <c r="AH7" s="30"/>
+      <c r="AI7" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="40"/>
+      <c r="AJ7" s="69"/>
+      <c r="AK7" s="69"/>
+      <c r="AL7" s="69"/>
+      <c r="AM7" s="69"/>
+      <c r="AN7" s="69"/>
+      <c r="AO7" s="70"/>
     </row>
     <row r="8" spans="1:41" ht="38" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A8" s="21">
+      <c r="A8" s="29">
         <v>3</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="76" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="51" t="s">
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="51"/>
-      <c r="V8" s="52" t="s">
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="W8" s="52"/>
-      <c r="X8" s="52"/>
-      <c r="Y8" s="52"/>
-      <c r="Z8" s="52"/>
-      <c r="AA8" s="52"/>
-      <c r="AB8" s="52"/>
-      <c r="AC8" s="52"/>
-      <c r="AD8" s="35">
+      <c r="W8" s="25"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="25"/>
+      <c r="AA8" s="25"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="26">
         <v>45654</v>
       </c>
-      <c r="AE8" s="36"/>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="21" t="s">
+      <c r="AE8" s="27"/>
+      <c r="AF8" s="28"/>
+      <c r="AG8" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="53" t="s">
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="AJ8" s="53"/>
-      <c r="AK8" s="53"/>
-      <c r="AL8" s="53"/>
-      <c r="AM8" s="53"/>
-      <c r="AN8" s="53"/>
-      <c r="AO8" s="53"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="34"/>
+      <c r="AL8" s="34"/>
+      <c r="AM8" s="34"/>
+      <c r="AN8" s="34"/>
+      <c r="AO8" s="34"/>
     </row>
     <row r="9" spans="1:41" ht="39" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A9" s="21">
+      <c r="A9" s="29">
         <v>4</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="51" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="52"/>
-      <c r="T9" s="52"/>
-      <c r="U9" s="52"/>
-      <c r="V9" s="52" t="s">
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="W9" s="52"/>
-      <c r="X9" s="52"/>
-      <c r="Y9" s="52"/>
-      <c r="Z9" s="52"/>
-      <c r="AA9" s="52"/>
-      <c r="AB9" s="52"/>
-      <c r="AC9" s="52"/>
-      <c r="AD9" s="35">
+      <c r="W9" s="25"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="25"/>
+      <c r="AA9" s="25"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="26">
         <v>45654</v>
       </c>
-      <c r="AE9" s="36"/>
-      <c r="AF9" s="37"/>
-      <c r="AG9" s="21" t="s">
+      <c r="AE9" s="27"/>
+      <c r="AF9" s="28"/>
+      <c r="AG9" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="53" t="s">
+      <c r="AH9" s="30"/>
+      <c r="AI9" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="AJ9" s="53"/>
-      <c r="AK9" s="53"/>
-      <c r="AL9" s="53"/>
-      <c r="AM9" s="53"/>
-      <c r="AN9" s="53"/>
-      <c r="AO9" s="53"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
+      <c r="AO9" s="34"/>
     </row>
     <row r="10" spans="1:41" ht="48.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="21">
+      <c r="A10" s="29">
         <v>5</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="51" t="s">
+      <c r="B10" s="30"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="52"/>
-      <c r="U10" s="52"/>
-      <c r="V10" s="54" t="s">
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="25"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="W10" s="55"/>
-      <c r="X10" s="55"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="56"/>
-      <c r="AD10" s="35">
+      <c r="W10" s="36"/>
+      <c r="X10" s="36"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="36"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="36"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="26">
         <v>45654</v>
       </c>
-      <c r="AE10" s="36"/>
-      <c r="AF10" s="37"/>
-      <c r="AG10" s="21" t="s">
+      <c r="AE10" s="27"/>
+      <c r="AF10" s="28"/>
+      <c r="AG10" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="53" t="s">
+      <c r="AH10" s="30"/>
+      <c r="AI10" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="AJ10" s="53"/>
-      <c r="AK10" s="53"/>
-      <c r="AL10" s="53"/>
-      <c r="AM10" s="53"/>
-      <c r="AN10" s="53"/>
-      <c r="AO10" s="53"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
     </row>
     <row r="11" spans="1:41" ht="66.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A11" s="21">
+      <c r="A11" s="29">
         <v>6</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="54" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="33"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="75"/>
-      <c r="V11" s="54" t="s">
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="W11" s="55"/>
-      <c r="X11" s="55"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="55"/>
-      <c r="AA11" s="55"/>
-      <c r="AB11" s="55"/>
-      <c r="AC11" s="56"/>
-      <c r="AD11" s="35">
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="37"/>
+      <c r="AD11" s="26">
         <v>45654</v>
       </c>
-      <c r="AE11" s="36"/>
-      <c r="AF11" s="37"/>
-      <c r="AG11" s="21" t="s">
+      <c r="AE11" s="27"/>
+      <c r="AF11" s="28"/>
+      <c r="AG11" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AH11" s="22"/>
-      <c r="AI11" s="78" t="s">
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="AJ11" s="78"/>
-      <c r="AK11" s="78"/>
-      <c r="AL11" s="78"/>
-      <c r="AM11" s="78"/>
-      <c r="AN11" s="78"/>
-      <c r="AO11" s="78"/>
+      <c r="AJ11" s="38"/>
+      <c r="AK11" s="38"/>
+      <c r="AL11" s="38"/>
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="38"/>
+      <c r="AO11" s="38"/>
     </row>
     <row r="12" spans="1:41" ht="41.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="21">
+      <c r="A12" s="29">
         <v>7</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="41" t="s">
+      <c r="B12" s="30"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="49"/>
-      <c r="T12" s="49"/>
-      <c r="U12" s="50"/>
-      <c r="V12" s="51" t="s">
+      <c r="P12" s="45"/>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="45"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="W12" s="52"/>
-      <c r="X12" s="52"/>
-      <c r="Y12" s="52"/>
-      <c r="Z12" s="52"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="35">
+      <c r="W12" s="25"/>
+      <c r="X12" s="25"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="25"/>
+      <c r="AA12" s="25"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="26">
         <v>45654</v>
       </c>
-      <c r="AE12" s="36"/>
-      <c r="AF12" s="37"/>
-      <c r="AG12" s="21" t="s">
+      <c r="AE12" s="27"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AH12" s="22"/>
-      <c r="AI12" s="53" t="s">
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="AJ12" s="53"/>
-      <c r="AK12" s="53"/>
-      <c r="AL12" s="53"/>
-      <c r="AM12" s="53"/>
-      <c r="AN12" s="53"/>
-      <c r="AO12" s="53"/>
+      <c r="AJ12" s="34"/>
+      <c r="AK12" s="34"/>
+      <c r="AL12" s="34"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="34"/>
+      <c r="AO12" s="34"/>
     </row>
     <row r="13" spans="1:41" ht="41.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="21">
+      <c r="A13" s="29">
         <v>8</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="25"/>
-      <c r="V13" s="51" t="s">
+      <c r="B13" s="30"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="33"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="23"/>
+      <c r="V13" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="W13" s="52"/>
-      <c r="X13" s="52"/>
-      <c r="Y13" s="52"/>
-      <c r="Z13" s="52"/>
-      <c r="AA13" s="52"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="52"/>
-      <c r="AD13" s="35">
+      <c r="W13" s="25"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="25"/>
+      <c r="AA13" s="25"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="26">
         <v>45654</v>
       </c>
-      <c r="AE13" s="36"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="21" t="s">
+      <c r="AE13" s="27"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AH13" s="22"/>
-      <c r="AI13" s="38" t="s">
+      <c r="AH13" s="30"/>
+      <c r="AI13" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="AJ13" s="47"/>
-      <c r="AK13" s="47"/>
-      <c r="AL13" s="47"/>
-      <c r="AM13" s="47"/>
-      <c r="AN13" s="47"/>
-      <c r="AO13" s="22"/>
+      <c r="AJ13" s="32"/>
+      <c r="AK13" s="32"/>
+      <c r="AL13" s="32"/>
+      <c r="AM13" s="32"/>
+      <c r="AN13" s="32"/>
+      <c r="AO13" s="30"/>
     </row>
     <row r="14" spans="1:41" ht="41.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="21">
+      <c r="A14" s="29">
         <v>9</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
-      <c r="U14" s="25"/>
-      <c r="V14" s="51" t="s">
+      <c r="B14" s="30"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="23"/>
+      <c r="V14" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
-      <c r="AA14" s="52"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="52"/>
-      <c r="AD14" s="35">
+      <c r="W14" s="25"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="25"/>
+      <c r="AA14" s="25"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="26">
         <v>45654</v>
       </c>
-      <c r="AE14" s="36"/>
-      <c r="AF14" s="37"/>
-      <c r="AG14" s="21" t="s">
+      <c r="AE14" s="27"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AH14" s="22"/>
-      <c r="AI14" s="38" t="s">
+      <c r="AH14" s="30"/>
+      <c r="AI14" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="AJ14" s="47"/>
-      <c r="AK14" s="47"/>
-      <c r="AL14" s="47"/>
-      <c r="AM14" s="47"/>
-      <c r="AN14" s="47"/>
-      <c r="AO14" s="22"/>
+      <c r="AJ14" s="32"/>
+      <c r="AK14" s="32"/>
+      <c r="AL14" s="32"/>
+      <c r="AM14" s="32"/>
+      <c r="AN14" s="32"/>
+      <c r="AO14" s="30"/>
     </row>
     <row r="15" spans="1:41" ht="41.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="21">
+      <c r="A15" s="29">
         <v>10</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="25"/>
-      <c r="V15" s="51" t="s">
+      <c r="B15" s="30"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="23"/>
+      <c r="V15" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="W15" s="52"/>
-      <c r="X15" s="52"/>
-      <c r="Y15" s="52"/>
-      <c r="Z15" s="52"/>
-      <c r="AA15" s="52"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="52"/>
-      <c r="AD15" s="35">
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="26">
         <v>45654</v>
       </c>
-      <c r="AE15" s="36"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="21" t="s">
+      <c r="AE15" s="27"/>
+      <c r="AF15" s="28"/>
+      <c r="AG15" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="38" t="s">
+      <c r="AH15" s="30"/>
+      <c r="AI15" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="AJ15" s="47"/>
-      <c r="AK15" s="47"/>
-      <c r="AL15" s="47"/>
-      <c r="AM15" s="47"/>
-      <c r="AN15" s="47"/>
-      <c r="AO15" s="22"/>
+      <c r="AJ15" s="32"/>
+      <c r="AK15" s="32"/>
+      <c r="AL15" s="32"/>
+      <c r="AM15" s="32"/>
+      <c r="AN15" s="32"/>
+      <c r="AO15" s="30"/>
     </row>
     <row r="16" spans="1:41" ht="41.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="21">
+      <c r="A16" s="29">
         <v>11</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="24"/>
-      <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
-      <c r="U16" s="25"/>
-      <c r="V16" s="51" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="23"/>
+      <c r="V16" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="W16" s="52"/>
-      <c r="X16" s="52"/>
-      <c r="Y16" s="52"/>
-      <c r="Z16" s="52"/>
-      <c r="AA16" s="52"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="52"/>
-      <c r="AD16" s="35">
+      <c r="W16" s="25"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="26">
         <v>45654</v>
       </c>
-      <c r="AE16" s="36"/>
-      <c r="AF16" s="37"/>
-      <c r="AG16" s="21" t="s">
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AH16" s="22"/>
-      <c r="AI16" s="38" t="s">
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="AJ16" s="47"/>
-      <c r="AK16" s="47"/>
-      <c r="AL16" s="47"/>
-      <c r="AM16" s="47"/>
-      <c r="AN16" s="47"/>
-      <c r="AO16" s="22"/>
+      <c r="AJ16" s="32"/>
+      <c r="AK16" s="32"/>
+      <c r="AL16" s="32"/>
+      <c r="AM16" s="32"/>
+      <c r="AN16" s="32"/>
+      <c r="AO16" s="30"/>
     </row>
     <row r="17" spans="1:41" ht="41.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="21">
+      <c r="A17" s="29">
         <v>12</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="24"/>
-      <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="25"/>
-      <c r="V17" s="51" t="s">
+      <c r="B17" s="30"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="23"/>
+      <c r="V17" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="W17" s="52"/>
-      <c r="X17" s="52"/>
-      <c r="Y17" s="52"/>
-      <c r="Z17" s="52"/>
-      <c r="AA17" s="52"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
-      <c r="AD17" s="35">
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="26">
         <v>45654</v>
       </c>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="37"/>
-      <c r="AG17" s="21" t="s">
+      <c r="AE17" s="27"/>
+      <c r="AF17" s="28"/>
+      <c r="AG17" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AH17" s="22"/>
-      <c r="AI17" s="38" t="s">
+      <c r="AH17" s="30"/>
+      <c r="AI17" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="AJ17" s="47"/>
-      <c r="AK17" s="47"/>
-      <c r="AL17" s="47"/>
-      <c r="AM17" s="47"/>
-      <c r="AN17" s="47"/>
-      <c r="AO17" s="22"/>
+      <c r="AJ17" s="32"/>
+      <c r="AK17" s="32"/>
+      <c r="AL17" s="32"/>
+      <c r="AM17" s="32"/>
+      <c r="AN17" s="32"/>
+      <c r="AO17" s="30"/>
     </row>
     <row r="18" spans="1:41" ht="41.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A18" s="21">
+      <c r="A18" s="29">
         <v>13</v>
       </c>
-      <c r="B18" s="22"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="25"/>
-      <c r="V18" s="51" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="52"/>
-      <c r="AA18" s="52"/>
-      <c r="AB18" s="52"/>
-      <c r="AC18" s="52"/>
-      <c r="AD18" s="35">
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="26">
         <v>45654</v>
       </c>
-      <c r="AE18" s="36"/>
-      <c r="AF18" s="37"/>
-      <c r="AG18" s="21" t="s">
+      <c r="AE18" s="27"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AH18" s="22"/>
-      <c r="AI18" s="38" t="s">
+      <c r="AH18" s="30"/>
+      <c r="AI18" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="AJ18" s="47"/>
-      <c r="AK18" s="47"/>
-      <c r="AL18" s="47"/>
-      <c r="AM18" s="47"/>
-      <c r="AN18" s="47"/>
-      <c r="AO18" s="22"/>
+      <c r="AJ18" s="32"/>
+      <c r="AK18" s="32"/>
+      <c r="AL18" s="32"/>
+      <c r="AM18" s="32"/>
+      <c r="AN18" s="32"/>
+      <c r="AO18" s="30"/>
     </row>
     <row r="19" spans="1:41" ht="41.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="21">
+      <c r="A19" s="29">
         <v>14</v>
       </c>
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="24"/>
-      <c r="R19" s="24"/>
-      <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
-      <c r="U19" s="25"/>
-      <c r="V19" s="51" t="s">
+      <c r="B19" s="30"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="W19" s="52"/>
-      <c r="X19" s="52"/>
-      <c r="Y19" s="52"/>
-      <c r="Z19" s="52"/>
-      <c r="AA19" s="52"/>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="52"/>
-      <c r="AD19" s="35">
+      <c r="W19" s="25"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="26">
         <v>45654</v>
       </c>
-      <c r="AE19" s="36"/>
-      <c r="AF19" s="37"/>
-      <c r="AG19" s="21" t="s">
+      <c r="AE19" s="27"/>
+      <c r="AF19" s="28"/>
+      <c r="AG19" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AH19" s="22"/>
-      <c r="AI19" s="38" t="s">
+      <c r="AH19" s="30"/>
+      <c r="AI19" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="AJ19" s="47"/>
-      <c r="AK19" s="47"/>
-      <c r="AL19" s="47"/>
-      <c r="AM19" s="47"/>
-      <c r="AN19" s="47"/>
-      <c r="AO19" s="22"/>
+      <c r="AJ19" s="32"/>
+      <c r="AK19" s="32"/>
+      <c r="AL19" s="32"/>
+      <c r="AM19" s="32"/>
+      <c r="AN19" s="32"/>
+      <c r="AO19" s="30"/>
     </row>
     <row r="20" spans="1:41" ht="41.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A20" s="21">
+      <c r="A20" s="29">
         <v>15</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="24"/>
-      <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
-      <c r="U20" s="25"/>
-      <c r="V20" s="51" t="s">
+      <c r="B20" s="30"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="23"/>
+      <c r="V20" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="W20" s="52"/>
-      <c r="X20" s="52"/>
-      <c r="Y20" s="52"/>
-      <c r="Z20" s="52"/>
-      <c r="AA20" s="52"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="35">
+      <c r="W20" s="25"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="26">
         <v>45654</v>
       </c>
-      <c r="AE20" s="36"/>
-      <c r="AF20" s="37"/>
-      <c r="AG20" s="21" t="s">
+      <c r="AE20" s="27"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AH20" s="22"/>
-      <c r="AI20" s="38" t="s">
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="AJ20" s="47"/>
-      <c r="AK20" s="47"/>
-      <c r="AL20" s="47"/>
-      <c r="AM20" s="47"/>
-      <c r="AN20" s="47"/>
-      <c r="AO20" s="22"/>
+      <c r="AJ20" s="32"/>
+      <c r="AK20" s="32"/>
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="32"/>
+      <c r="AN20" s="32"/>
+      <c r="AO20" s="30"/>
     </row>
     <row r="21" spans="1:41" ht="41.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="21">
+      <c r="A21" s="29">
         <v>16</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="48"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="51" t="s">
+      <c r="B21" s="30"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52"/>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="35">
+      <c r="W21" s="25"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="26">
         <v>45654</v>
       </c>
-      <c r="AE21" s="36"/>
-      <c r="AF21" s="37"/>
-      <c r="AG21" s="21" t="s">
+      <c r="AE21" s="27"/>
+      <c r="AF21" s="28"/>
+      <c r="AG21" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AH21" s="22"/>
-      <c r="AI21" s="38" t="s">
+      <c r="AH21" s="30"/>
+      <c r="AI21" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="AJ21" s="47"/>
-      <c r="AK21" s="47"/>
-      <c r="AL21" s="47"/>
-      <c r="AM21" s="47"/>
-      <c r="AN21" s="47"/>
-      <c r="AO21" s="22"/>
+      <c r="AJ21" s="32"/>
+      <c r="AK21" s="32"/>
+      <c r="AL21" s="32"/>
+      <c r="AM21" s="32"/>
+      <c r="AN21" s="32"/>
+      <c r="AO21" s="30"/>
     </row>
     <row r="22" spans="1:41" ht="41.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="21">
+      <c r="A22" s="29">
         <v>17</v>
       </c>
-      <c r="B22" s="22"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="25"/>
-      <c r="V22" s="51" t="s">
+      <c r="B22" s="30"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="23"/>
+      <c r="V22" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="W22" s="52"/>
-      <c r="X22" s="52"/>
-      <c r="Y22" s="52"/>
-      <c r="Z22" s="52"/>
-      <c r="AA22" s="52"/>
-      <c r="AB22" s="52"/>
-      <c r="AC22" s="52"/>
-      <c r="AD22" s="35">
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="26">
         <v>45654</v>
       </c>
-      <c r="AE22" s="36"/>
-      <c r="AF22" s="37"/>
-      <c r="AG22" s="21" t="s">
+      <c r="AE22" s="27"/>
+      <c r="AF22" s="28"/>
+      <c r="AG22" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AH22" s="22"/>
-      <c r="AI22" s="38" t="s">
+      <c r="AH22" s="30"/>
+      <c r="AI22" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="AJ22" s="47"/>
-      <c r="AK22" s="47"/>
-      <c r="AL22" s="47"/>
-      <c r="AM22" s="47"/>
-      <c r="AN22" s="47"/>
-      <c r="AO22" s="22"/>
+      <c r="AJ22" s="32"/>
+      <c r="AK22" s="32"/>
+      <c r="AL22" s="32"/>
+      <c r="AM22" s="32"/>
+      <c r="AN22" s="32"/>
+      <c r="AO22" s="30"/>
     </row>
     <row r="23" spans="1:41" ht="41.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A23" s="21">
+      <c r="A23" s="29">
         <v>18</v>
       </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="41" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="51" t="s">
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="W23" s="52"/>
-      <c r="X23" s="52"/>
-      <c r="Y23" s="52"/>
-      <c r="Z23" s="52"/>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="52"/>
-      <c r="AC23" s="52"/>
-      <c r="AD23" s="35">
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="26">
         <v>45654</v>
       </c>
-      <c r="AE23" s="36"/>
-      <c r="AF23" s="37"/>
-      <c r="AG23" s="21" t="s">
+      <c r="AE23" s="27"/>
+      <c r="AF23" s="28"/>
+      <c r="AG23" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AH23" s="22"/>
-      <c r="AI23" s="53" t="s">
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="AJ23" s="53"/>
-      <c r="AK23" s="53"/>
-      <c r="AL23" s="53"/>
-      <c r="AM23" s="53"/>
-      <c r="AN23" s="53"/>
-      <c r="AO23" s="53"/>
+      <c r="AJ23" s="34"/>
+      <c r="AK23" s="34"/>
+      <c r="AL23" s="34"/>
+      <c r="AM23" s="34"/>
+      <c r="AN23" s="34"/>
+      <c r="AO23" s="34"/>
     </row>
     <row r="24" spans="1:41" ht="79" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A24" s="21">
+      <c r="A24" s="29">
         <v>19</v>
       </c>
-      <c r="B24" s="22"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="25"/>
-      <c r="O24" s="41" t="s">
+      <c r="B24" s="30"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="P24" s="42"/>
-      <c r="Q24" s="42"/>
-      <c r="R24" s="42"/>
-      <c r="S24" s="42"/>
-      <c r="T24" s="42"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="32" t="s">
+      <c r="P24" s="74"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="74"/>
+      <c r="T24" s="74"/>
+      <c r="U24" s="75"/>
+      <c r="V24" s="66" t="s">
         <v>80</v>
       </c>
-      <c r="W24" s="33"/>
-      <c r="X24" s="33"/>
-      <c r="Y24" s="33"/>
-      <c r="Z24" s="33"/>
-      <c r="AA24" s="33"/>
-      <c r="AB24" s="33"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="35">
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="67"/>
+      <c r="Z24" s="67"/>
+      <c r="AA24" s="67"/>
+      <c r="AB24" s="67"/>
+      <c r="AC24" s="68"/>
+      <c r="AD24" s="26">
         <v>45655</v>
       </c>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="37"/>
-      <c r="AG24" s="21" t="s">
+      <c r="AE24" s="27"/>
+      <c r="AF24" s="28"/>
+      <c r="AG24" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AH24" s="22"/>
-      <c r="AI24" s="38" t="s">
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="31" t="s">
         <v>78</v>
       </c>
-      <c r="AJ24" s="39"/>
-      <c r="AK24" s="39"/>
-      <c r="AL24" s="39"/>
-      <c r="AM24" s="39"/>
-      <c r="AN24" s="39"/>
-      <c r="AO24" s="40"/>
+      <c r="AJ24" s="69"/>
+      <c r="AK24" s="69"/>
+      <c r="AL24" s="69"/>
+      <c r="AM24" s="69"/>
+      <c r="AN24" s="69"/>
+      <c r="AO24" s="70"/>
     </row>
     <row r="25" spans="1:41" ht="65" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="21">
+      <c r="A25" s="29">
         <v>20</v>
       </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="32" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="76"/>
+      <c r="P25" s="77"/>
+      <c r="Q25" s="77"/>
+      <c r="R25" s="77"/>
+      <c r="S25" s="77"/>
+      <c r="T25" s="77"/>
+      <c r="U25" s="78"/>
+      <c r="V25" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="W25" s="33"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="33"/>
-      <c r="Z25" s="33"/>
-      <c r="AA25" s="33"/>
-      <c r="AB25" s="33"/>
-      <c r="AC25" s="34"/>
-      <c r="AD25" s="35">
+      <c r="W25" s="67"/>
+      <c r="X25" s="67"/>
+      <c r="Y25" s="67"/>
+      <c r="Z25" s="67"/>
+      <c r="AA25" s="67"/>
+      <c r="AB25" s="67"/>
+      <c r="AC25" s="68"/>
+      <c r="AD25" s="26">
         <v>45655</v>
       </c>
-      <c r="AE25" s="36"/>
-      <c r="AF25" s="37"/>
-      <c r="AG25" s="21" t="s">
+      <c r="AE25" s="27"/>
+      <c r="AF25" s="28"/>
+      <c r="AG25" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AH25" s="22"/>
-      <c r="AI25" s="21" t="s">
+      <c r="AH25" s="30"/>
+      <c r="AI25" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="AJ25" s="47"/>
-      <c r="AK25" s="47"/>
-      <c r="AL25" s="47"/>
-      <c r="AM25" s="47"/>
-      <c r="AN25" s="47"/>
-      <c r="AO25" s="22"/>
+      <c r="AJ25" s="32"/>
+      <c r="AK25" s="32"/>
+      <c r="AL25" s="32"/>
+      <c r="AM25" s="32"/>
+      <c r="AN25" s="32"/>
+      <c r="AO25" s="30"/>
     </row>
     <row r="26" spans="1:41" ht="81" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="21">
+      <c r="A26" s="29">
         <v>21</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="27"/>
-      <c r="N26" s="28"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="30"/>
-      <c r="U26" s="31"/>
-      <c r="V26" s="32" t="s">
+      <c r="B26" s="30"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="64"/>
+      <c r="J26" s="64"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="64"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="72"/>
+      <c r="Q26" s="72"/>
+      <c r="R26" s="72"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="W26" s="33"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="33"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="33"/>
-      <c r="AB26" s="33"/>
-      <c r="AC26" s="34"/>
-      <c r="AD26" s="35">
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
+      <c r="Y26" s="67"/>
+      <c r="Z26" s="67"/>
+      <c r="AA26" s="67"/>
+      <c r="AB26" s="67"/>
+      <c r="AC26" s="68"/>
+      <c r="AD26" s="26">
         <v>45655</v>
       </c>
-      <c r="AE26" s="36"/>
-      <c r="AF26" s="37"/>
-      <c r="AG26" s="21" t="s">
+      <c r="AE26" s="27"/>
+      <c r="AF26" s="28"/>
+      <c r="AG26" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AH26" s="22"/>
-      <c r="AI26" s="38" t="s">
+      <c r="AH26" s="30"/>
+      <c r="AI26" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="AJ26" s="39"/>
-      <c r="AK26" s="39"/>
-      <c r="AL26" s="39"/>
-      <c r="AM26" s="39"/>
-      <c r="AN26" s="39"/>
-      <c r="AO26" s="40"/>
+      <c r="AJ26" s="69"/>
+      <c r="AK26" s="69"/>
+      <c r="AL26" s="69"/>
+      <c r="AM26" s="69"/>
+      <c r="AN26" s="69"/>
+      <c r="AO26" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="193">
-    <mergeCell ref="O22:U22"/>
-    <mergeCell ref="V22:AC22"/>
-    <mergeCell ref="AD22:AF22"/>
-    <mergeCell ref="AG22:AH22"/>
-    <mergeCell ref="AI22:AO22"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AO20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:N21"/>
-    <mergeCell ref="O21:U21"/>
-    <mergeCell ref="V21:AC21"/>
-    <mergeCell ref="AD21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AO21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:N20"/>
-    <mergeCell ref="O20:U20"/>
-    <mergeCell ref="V20:AC20"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:N22"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AO18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:N19"/>
-    <mergeCell ref="O19:U19"/>
-    <mergeCell ref="V19:AC19"/>
-    <mergeCell ref="AD19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AO19"/>
-    <mergeCell ref="AD18:AF18"/>
-    <mergeCell ref="H16:N16"/>
-    <mergeCell ref="O16:U16"/>
-    <mergeCell ref="V16:AC16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="O15:U15"/>
-    <mergeCell ref="V15:AC15"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="O18:U18"/>
-    <mergeCell ref="V18:AC18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="O17:U17"/>
-    <mergeCell ref="V17:AC17"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AO14"/>
-    <mergeCell ref="AD15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AO15"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AO16"/>
-    <mergeCell ref="AD17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AO17"/>
-    <mergeCell ref="AD14:AF14"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AO9"/>
-    <mergeCell ref="V8:AC8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="V10:AC10"/>
-    <mergeCell ref="AD10:AF10"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AO12"/>
-    <mergeCell ref="V13:AC13"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AO13"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AO10"/>
-    <mergeCell ref="V11:AC11"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AO11"/>
-    <mergeCell ref="V12:AC12"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="V9:AC9"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="AI5:AO5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="V5:AC5"/>
-    <mergeCell ref="O5:U5"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="V6:AC6"/>
-    <mergeCell ref="O8:U8"/>
-    <mergeCell ref="O6:U6"/>
-    <mergeCell ref="H8:N8"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="AI6:AO6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AD6:AF6"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AO8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="O12:U12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="T1:AA1"/>
-    <mergeCell ref="A1:N4"/>
-    <mergeCell ref="V14:AC14"/>
-    <mergeCell ref="H13:N13"/>
-    <mergeCell ref="O13:U13"/>
-    <mergeCell ref="H14:N14"/>
-    <mergeCell ref="O14:U14"/>
-    <mergeCell ref="H9:N9"/>
-    <mergeCell ref="H10:N10"/>
-    <mergeCell ref="H11:N11"/>
-    <mergeCell ref="H12:N12"/>
-    <mergeCell ref="O10:U10"/>
-    <mergeCell ref="O11:U11"/>
-    <mergeCell ref="AL1:AO2"/>
-    <mergeCell ref="AL3:AO4"/>
-    <mergeCell ref="AB3:AD4"/>
-    <mergeCell ref="AB1:AD2"/>
-    <mergeCell ref="AE1:AH2"/>
-    <mergeCell ref="AE3:AH4"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AI3:AK4"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="O3:S3"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="H26:N26"/>
+    <mergeCell ref="O26:U26"/>
+    <mergeCell ref="V26:AC26"/>
+    <mergeCell ref="AD26:AF26"/>
+    <mergeCell ref="AG26:AH26"/>
+    <mergeCell ref="AI26:AO26"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="H24:N24"/>
+    <mergeCell ref="O24:U24"/>
+    <mergeCell ref="V24:AC24"/>
+    <mergeCell ref="AD24:AF24"/>
+    <mergeCell ref="AG24:AH24"/>
+    <mergeCell ref="AI24:AO24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="H25:N25"/>
+    <mergeCell ref="O25:U25"/>
+    <mergeCell ref="V25:AC25"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="AG25:AH25"/>
+    <mergeCell ref="AI25:AO25"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:G23"/>
     <mergeCell ref="H23:N23"/>
@@ -5264,30 +5143,151 @@
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="O9:U9"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="H26:N26"/>
-    <mergeCell ref="O26:U26"/>
-    <mergeCell ref="V26:AC26"/>
-    <mergeCell ref="AD26:AF26"/>
-    <mergeCell ref="AG26:AH26"/>
-    <mergeCell ref="AI26:AO26"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:G24"/>
-    <mergeCell ref="H24:N24"/>
-    <mergeCell ref="O24:U24"/>
-    <mergeCell ref="V24:AC24"/>
-    <mergeCell ref="AD24:AF24"/>
-    <mergeCell ref="AG24:AH24"/>
-    <mergeCell ref="AI24:AO24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="H25:N25"/>
-    <mergeCell ref="O25:U25"/>
-    <mergeCell ref="V25:AC25"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="AG25:AH25"/>
-    <mergeCell ref="AI25:AO25"/>
+    <mergeCell ref="AL1:AO2"/>
+    <mergeCell ref="AL3:AO4"/>
+    <mergeCell ref="AB3:AD4"/>
+    <mergeCell ref="AB1:AD2"/>
+    <mergeCell ref="AE1:AH2"/>
+    <mergeCell ref="AE3:AH4"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AI3:AK4"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="T3:AA3"/>
+    <mergeCell ref="O3:S3"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="T1:AA1"/>
+    <mergeCell ref="A1:N4"/>
+    <mergeCell ref="V14:AC14"/>
+    <mergeCell ref="H13:N13"/>
+    <mergeCell ref="O13:U13"/>
+    <mergeCell ref="H14:N14"/>
+    <mergeCell ref="O14:U14"/>
+    <mergeCell ref="H9:N9"/>
+    <mergeCell ref="H10:N10"/>
+    <mergeCell ref="H11:N11"/>
+    <mergeCell ref="H12:N12"/>
+    <mergeCell ref="O10:U10"/>
+    <mergeCell ref="O11:U11"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="O12:U12"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="AI5:AO5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="V5:AC5"/>
+    <mergeCell ref="O5:U5"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="V6:AC6"/>
+    <mergeCell ref="O8:U8"/>
+    <mergeCell ref="O6:U6"/>
+    <mergeCell ref="H8:N8"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="AI6:AO6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AD6:AF6"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AO8"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AO9"/>
+    <mergeCell ref="V8:AC8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="V10:AC10"/>
+    <mergeCell ref="AD10:AF10"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AO12"/>
+    <mergeCell ref="V13:AC13"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AO13"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AO10"/>
+    <mergeCell ref="V11:AC11"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AO11"/>
+    <mergeCell ref="V12:AC12"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="V9:AC9"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AO14"/>
+    <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AO15"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AO16"/>
+    <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AO17"/>
+    <mergeCell ref="AD14:AF14"/>
+    <mergeCell ref="H16:N16"/>
+    <mergeCell ref="O16:U16"/>
+    <mergeCell ref="V16:AC16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="O15:U15"/>
+    <mergeCell ref="V15:AC15"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="O18:U18"/>
+    <mergeCell ref="V18:AC18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="O17:U17"/>
+    <mergeCell ref="V17:AC17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AO18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="O19:U19"/>
+    <mergeCell ref="V19:AC19"/>
+    <mergeCell ref="AD19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AO19"/>
+    <mergeCell ref="AD18:AF18"/>
+    <mergeCell ref="O22:U22"/>
+    <mergeCell ref="V22:AC22"/>
+    <mergeCell ref="AD22:AF22"/>
+    <mergeCell ref="AG22:AH22"/>
+    <mergeCell ref="AI22:AO22"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AO20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="O21:U21"/>
+    <mergeCell ref="V21:AC21"/>
+    <mergeCell ref="AD21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AO21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="O20:U20"/>
+    <mergeCell ref="V20:AC20"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:N22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5299,7 +5299,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A998546-974D-3744-9E49-E8CBED3EA6E4}">
   <dimension ref="A1:AO477"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
@@ -5309,22 +5309,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="65"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
       <c r="O1" s="61" t="s">
         <v>0</v>
       </c>
@@ -5332,16 +5332,16 @@
       <c r="Q1" s="61"/>
       <c r="R1" s="61"/>
       <c r="S1" s="61"/>
-      <c r="T1" s="53" t="s">
+      <c r="T1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
       <c r="AB1" s="59" t="s">
         <v>6</v>
       </c>
@@ -5366,20 +5366,20 @@
       <c r="AO1" s="57"/>
     </row>
     <row r="2" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="68"/>
+      <c r="A2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="53"/>
       <c r="O2" s="61" t="s">
         <v>2</v>
       </c>
@@ -5387,16 +5387,16 @@
       <c r="Q2" s="61"/>
       <c r="R2" s="61"/>
       <c r="S2" s="61"/>
-      <c r="T2" s="53" t="s">
+      <c r="T2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
-      <c r="X2" s="53"/>
-      <c r="Y2" s="53"/>
-      <c r="Z2" s="53"/>
-      <c r="AA2" s="53"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
       <c r="AB2" s="59"/>
       <c r="AC2" s="59"/>
       <c r="AD2" s="59"/>
@@ -5413,20 +5413,20 @@
       <c r="AO2" s="57"/>
     </row>
     <row r="3" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="66"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="68"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="53"/>
       <c r="O3" s="61" t="s">
         <v>5</v>
       </c>
@@ -5434,25 +5434,25 @@
       <c r="Q3" s="61"/>
       <c r="R3" s="61"/>
       <c r="S3" s="61"/>
-      <c r="T3" s="53" t="s">
+      <c r="T3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
       <c r="AB3" s="59" t="s">
         <v>7</v>
       </c>
       <c r="AC3" s="59"/>
       <c r="AD3" s="59"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
       <c r="AI3" s="59" t="s">
         <v>9</v>
       </c>
@@ -5464,20 +5464,20 @@
       <c r="AO3" s="58"/>
     </row>
     <row r="4" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="71"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="56"/>
       <c r="O4" s="61" t="s">
         <v>4</v>
       </c>
@@ -5498,10 +5498,10 @@
       <c r="AB4" s="59"/>
       <c r="AC4" s="59"/>
       <c r="AD4" s="59"/>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
+      <c r="AE4" s="34"/>
+      <c r="AF4" s="34"/>
+      <c r="AG4" s="34"/>
+      <c r="AH4" s="34"/>
       <c r="AI4" s="59"/>
       <c r="AJ4" s="59"/>
       <c r="AK4" s="59"/>
@@ -5511,16 +5511,16 @@
       <c r="AO4" s="58"/>
     </row>
     <row r="5" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="79" t="s">
+      <c r="A5" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79">
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82">
         <v>1</v>
       </c>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -6908,16 +6908,16 @@
       <c r="AO37" s="16"/>
     </row>
     <row r="38" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A38" s="79" t="s">
+      <c r="A38" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79">
+      <c r="B38" s="82"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82">
         <v>2</v>
       </c>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="82"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -7830,16 +7830,16 @@
       <c r="AO59" s="16"/>
     </row>
     <row r="60" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A60" s="79" t="s">
+      <c r="A60" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B60" s="79"/>
-      <c r="C60" s="79"/>
-      <c r="D60" s="79">
+      <c r="B60" s="82"/>
+      <c r="C60" s="82"/>
+      <c r="D60" s="82">
         <v>3</v>
       </c>
-      <c r="E60" s="79"/>
-      <c r="F60" s="79"/>
+      <c r="E60" s="82"/>
+      <c r="F60" s="82"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
@@ -8752,16 +8752,16 @@
       <c r="AO81" s="16"/>
     </row>
     <row r="82" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A82" s="79" t="s">
+      <c r="A82" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B82" s="79"/>
-      <c r="C82" s="79"/>
-      <c r="D82" s="79">
+      <c r="B82" s="82"/>
+      <c r="C82" s="82"/>
+      <c r="D82" s="82">
         <v>4</v>
       </c>
-      <c r="E82" s="79"/>
-      <c r="F82" s="79"/>
+      <c r="E82" s="82"/>
+      <c r="F82" s="82"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
@@ -9674,16 +9674,16 @@
       <c r="AO103" s="16"/>
     </row>
     <row r="104" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A104" s="79" t="s">
+      <c r="A104" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B104" s="79"/>
-      <c r="C104" s="79"/>
-      <c r="D104" s="79">
+      <c r="B104" s="82"/>
+      <c r="C104" s="82"/>
+      <c r="D104" s="82">
         <v>5</v>
       </c>
-      <c r="E104" s="79"/>
-      <c r="F104" s="79"/>
+      <c r="E104" s="82"/>
+      <c r="F104" s="82"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
@@ -10596,16 +10596,16 @@
       <c r="AO125" s="16"/>
     </row>
     <row r="126" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A126" s="79" t="s">
+      <c r="A126" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="B126" s="79"/>
-      <c r="C126" s="79"/>
-      <c r="D126" s="79">
+      <c r="B126" s="82"/>
+      <c r="C126" s="82"/>
+      <c r="D126" s="82">
         <v>6</v>
       </c>
-      <c r="E126" s="79"/>
-      <c r="F126" s="79"/>
+      <c r="E126" s="82"/>
+      <c r="F126" s="82"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
@@ -11518,16 +11518,16 @@
       <c r="AO147" s="16"/>
     </row>
     <row r="148" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A148" s="80" t="s">
+      <c r="A148" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B148" s="81"/>
-      <c r="C148" s="82"/>
-      <c r="D148" s="80">
+      <c r="B148" s="80"/>
+      <c r="C148" s="81"/>
+      <c r="D148" s="79">
         <v>7</v>
       </c>
-      <c r="E148" s="81"/>
-      <c r="F148" s="82"/>
+      <c r="E148" s="80"/>
+      <c r="F148" s="81"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
@@ -12440,16 +12440,16 @@
       <c r="AO169" s="16"/>
     </row>
     <row r="170" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A170" s="80" t="s">
+      <c r="A170" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B170" s="81"/>
-      <c r="C170" s="82"/>
-      <c r="D170" s="80">
+      <c r="B170" s="80"/>
+      <c r="C170" s="81"/>
+      <c r="D170" s="79">
         <v>8</v>
       </c>
-      <c r="E170" s="81"/>
-      <c r="F170" s="82"/>
+      <c r="E170" s="80"/>
+      <c r="F170" s="81"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
@@ -13362,16 +13362,16 @@
       <c r="AO191" s="16"/>
     </row>
     <row r="192" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A192" s="80" t="s">
+      <c r="A192" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B192" s="81"/>
-      <c r="C192" s="82"/>
-      <c r="D192" s="80">
+      <c r="B192" s="80"/>
+      <c r="C192" s="81"/>
+      <c r="D192" s="79">
         <v>9</v>
       </c>
-      <c r="E192" s="81"/>
-      <c r="F192" s="82"/>
+      <c r="E192" s="80"/>
+      <c r="F192" s="81"/>
       <c r="G192" s="2"/>
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
@@ -14284,16 +14284,16 @@
       <c r="AO213" s="16"/>
     </row>
     <row r="214" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A214" s="80" t="s">
+      <c r="A214" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B214" s="81"/>
-      <c r="C214" s="82"/>
-      <c r="D214" s="80">
+      <c r="B214" s="80"/>
+      <c r="C214" s="81"/>
+      <c r="D214" s="79">
         <v>10</v>
       </c>
-      <c r="E214" s="81"/>
-      <c r="F214" s="82"/>
+      <c r="E214" s="80"/>
+      <c r="F214" s="81"/>
       <c r="G214" s="2"/>
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
@@ -15206,16 +15206,16 @@
       <c r="AO235" s="16"/>
     </row>
     <row r="236" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A236" s="80" t="s">
+      <c r="A236" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B236" s="81"/>
-      <c r="C236" s="82"/>
-      <c r="D236" s="80">
+      <c r="B236" s="80"/>
+      <c r="C236" s="81"/>
+      <c r="D236" s="79">
         <v>11</v>
       </c>
-      <c r="E236" s="81"/>
-      <c r="F236" s="82"/>
+      <c r="E236" s="80"/>
+      <c r="F236" s="81"/>
       <c r="G236" s="2"/>
       <c r="H236" s="2"/>
       <c r="I236" s="2"/>
@@ -16128,16 +16128,16 @@
       <c r="AO257" s="16"/>
     </row>
     <row r="258" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A258" s="80" t="s">
+      <c r="A258" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B258" s="81"/>
-      <c r="C258" s="82"/>
-      <c r="D258" s="80">
+      <c r="B258" s="80"/>
+      <c r="C258" s="81"/>
+      <c r="D258" s="79">
         <v>12</v>
       </c>
-      <c r="E258" s="81"/>
-      <c r="F258" s="82"/>
+      <c r="E258" s="80"/>
+      <c r="F258" s="81"/>
       <c r="G258" s="2"/>
       <c r="H258" s="2"/>
       <c r="I258" s="2"/>
@@ -17050,16 +17050,16 @@
       <c r="AO279" s="16"/>
     </row>
     <row r="280" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A280" s="80" t="s">
+      <c r="A280" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B280" s="81"/>
-      <c r="C280" s="82"/>
-      <c r="D280" s="80">
+      <c r="B280" s="80"/>
+      <c r="C280" s="81"/>
+      <c r="D280" s="79">
         <v>13</v>
       </c>
-      <c r="E280" s="81"/>
-      <c r="F280" s="82"/>
+      <c r="E280" s="80"/>
+      <c r="F280" s="81"/>
       <c r="G280" s="2"/>
       <c r="H280" s="2"/>
       <c r="I280" s="2"/>
@@ -17972,16 +17972,16 @@
       <c r="AO301" s="16"/>
     </row>
     <row r="302" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A302" s="80" t="s">
+      <c r="A302" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B302" s="81"/>
-      <c r="C302" s="82"/>
-      <c r="D302" s="80">
+      <c r="B302" s="80"/>
+      <c r="C302" s="81"/>
+      <c r="D302" s="79">
         <v>14</v>
       </c>
-      <c r="E302" s="81"/>
-      <c r="F302" s="82"/>
+      <c r="E302" s="80"/>
+      <c r="F302" s="81"/>
       <c r="G302" s="2"/>
       <c r="H302" s="2"/>
       <c r="I302" s="2"/>
@@ -18894,16 +18894,16 @@
       <c r="AO323" s="16"/>
     </row>
     <row r="324" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A324" s="80" t="s">
+      <c r="A324" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B324" s="81"/>
-      <c r="C324" s="82"/>
-      <c r="D324" s="80">
+      <c r="B324" s="80"/>
+      <c r="C324" s="81"/>
+      <c r="D324" s="79">
         <v>15</v>
       </c>
-      <c r="E324" s="81"/>
-      <c r="F324" s="82"/>
+      <c r="E324" s="80"/>
+      <c r="F324" s="81"/>
       <c r="G324" s="2"/>
       <c r="H324" s="2"/>
       <c r="I324" s="2"/>
@@ -19816,16 +19816,16 @@
       <c r="AO345" s="16"/>
     </row>
     <row r="346" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A346" s="80" t="s">
+      <c r="A346" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B346" s="81"/>
-      <c r="C346" s="82"/>
-      <c r="D346" s="80">
+      <c r="B346" s="80"/>
+      <c r="C346" s="81"/>
+      <c r="D346" s="79">
         <v>16</v>
       </c>
-      <c r="E346" s="81"/>
-      <c r="F346" s="82"/>
+      <c r="E346" s="80"/>
+      <c r="F346" s="81"/>
       <c r="G346" s="2"/>
       <c r="H346" s="2"/>
       <c r="I346" s="2"/>
@@ -20738,16 +20738,16 @@
       <c r="AO367" s="16"/>
     </row>
     <row r="368" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A368" s="80" t="s">
+      <c r="A368" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B368" s="81"/>
-      <c r="C368" s="82"/>
-      <c r="D368" s="80">
+      <c r="B368" s="80"/>
+      <c r="C368" s="81"/>
+      <c r="D368" s="79">
         <v>17</v>
       </c>
-      <c r="E368" s="81"/>
-      <c r="F368" s="82"/>
+      <c r="E368" s="80"/>
+      <c r="F368" s="81"/>
       <c r="G368" s="2"/>
       <c r="H368" s="2"/>
       <c r="I368" s="2"/>
@@ -21660,16 +21660,16 @@
       <c r="AO389" s="16"/>
     </row>
     <row r="390" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A390" s="80" t="s">
+      <c r="A390" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B390" s="81"/>
-      <c r="C390" s="82"/>
-      <c r="D390" s="80">
+      <c r="B390" s="80"/>
+      <c r="C390" s="81"/>
+      <c r="D390" s="79">
         <v>18</v>
       </c>
-      <c r="E390" s="81"/>
-      <c r="F390" s="82"/>
+      <c r="E390" s="80"/>
+      <c r="F390" s="81"/>
       <c r="G390" s="2"/>
       <c r="H390" s="2"/>
       <c r="I390" s="2"/>
@@ -22582,16 +22582,16 @@
       <c r="AO411" s="16"/>
     </row>
     <row r="412" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A412" s="80" t="s">
+      <c r="A412" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B412" s="81"/>
-      <c r="C412" s="82"/>
-      <c r="D412" s="80">
+      <c r="B412" s="80"/>
+      <c r="C412" s="81"/>
+      <c r="D412" s="79">
         <v>19</v>
       </c>
-      <c r="E412" s="81"/>
-      <c r="F412" s="82"/>
+      <c r="E412" s="80"/>
+      <c r="F412" s="81"/>
       <c r="G412" s="2"/>
       <c r="H412" s="2"/>
       <c r="I412" s="2"/>
@@ -23506,16 +23506,16 @@
       <c r="AO433" s="16"/>
     </row>
     <row r="434" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A434" s="80" t="s">
+      <c r="A434" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B434" s="81"/>
-      <c r="C434" s="82"/>
-      <c r="D434" s="80">
+      <c r="B434" s="80"/>
+      <c r="C434" s="81"/>
+      <c r="D434" s="79">
         <v>20</v>
       </c>
-      <c r="E434" s="81"/>
-      <c r="F434" s="82"/>
+      <c r="E434" s="80"/>
+      <c r="F434" s="81"/>
       <c r="G434" s="2"/>
       <c r="H434" s="2"/>
       <c r="I434" s="2"/>
@@ -24430,16 +24430,16 @@
       <c r="AO455" s="16"/>
     </row>
     <row r="456" spans="1:41" ht="20" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A456" s="80" t="s">
+      <c r="A456" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="B456" s="81"/>
-      <c r="C456" s="82"/>
-      <c r="D456" s="80">
+      <c r="B456" s="80"/>
+      <c r="C456" s="81"/>
+      <c r="D456" s="79">
         <v>21</v>
       </c>
-      <c r="E456" s="81"/>
-      <c r="F456" s="82"/>
+      <c r="E456" s="80"/>
+      <c r="F456" s="81"/>
       <c r="G456" s="2"/>
       <c r="H456" s="2"/>
       <c r="I456" s="2"/>
@@ -25355,33 +25355,14 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="A456:C456"/>
-    <mergeCell ref="D456:F456"/>
-    <mergeCell ref="A258:C258"/>
-    <mergeCell ref="D258:F258"/>
-    <mergeCell ref="A346:C346"/>
-    <mergeCell ref="D346:F346"/>
-    <mergeCell ref="A280:C280"/>
-    <mergeCell ref="D280:F280"/>
-    <mergeCell ref="A302:C302"/>
-    <mergeCell ref="D302:F302"/>
-    <mergeCell ref="A324:C324"/>
-    <mergeCell ref="D324:F324"/>
-    <mergeCell ref="A412:C412"/>
-    <mergeCell ref="D412:F412"/>
-    <mergeCell ref="A214:C214"/>
-    <mergeCell ref="D214:F214"/>
-    <mergeCell ref="A236:C236"/>
-    <mergeCell ref="D236:F236"/>
-    <mergeCell ref="A434:C434"/>
-    <mergeCell ref="D434:F434"/>
-    <mergeCell ref="A1:N4"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="D82:F82"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="D104:F104"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A192:C192"/>
+    <mergeCell ref="D192:F192"/>
+    <mergeCell ref="A170:C170"/>
+    <mergeCell ref="D170:F170"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="D148:F148"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="D126:F126"/>
     <mergeCell ref="AL1:AO2"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="T2:AA2"/>
@@ -25398,22 +25379,41 @@
     <mergeCell ref="AB1:AD2"/>
     <mergeCell ref="AE1:AH2"/>
     <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="A1:N4"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="D82:F82"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="D104:F104"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="D38:F38"/>
     <mergeCell ref="A60:C60"/>
     <mergeCell ref="D60:F60"/>
+    <mergeCell ref="A214:C214"/>
+    <mergeCell ref="D214:F214"/>
+    <mergeCell ref="A236:C236"/>
+    <mergeCell ref="D236:F236"/>
+    <mergeCell ref="A434:C434"/>
+    <mergeCell ref="D434:F434"/>
     <mergeCell ref="A390:C390"/>
     <mergeCell ref="D390:F390"/>
     <mergeCell ref="A368:C368"/>
     <mergeCell ref="D368:F368"/>
-    <mergeCell ref="A170:C170"/>
-    <mergeCell ref="D170:F170"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="D148:F148"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="D126:F126"/>
-    <mergeCell ref="A192:C192"/>
-    <mergeCell ref="D192:F192"/>
+    <mergeCell ref="A456:C456"/>
+    <mergeCell ref="D456:F456"/>
+    <mergeCell ref="A258:C258"/>
+    <mergeCell ref="D258:F258"/>
+    <mergeCell ref="A346:C346"/>
+    <mergeCell ref="D346:F346"/>
+    <mergeCell ref="A280:C280"/>
+    <mergeCell ref="D280:F280"/>
+    <mergeCell ref="A302:C302"/>
+    <mergeCell ref="D302:F302"/>
+    <mergeCell ref="A324:C324"/>
+    <mergeCell ref="D324:F324"/>
+    <mergeCell ref="A412:C412"/>
+    <mergeCell ref="D412:F412"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
